--- a/500all/speech_level/speeches_CHRG-114hhrg99835.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99835.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chair, I yield back.    Chairman CHABOT. Thank you. The gentlelady yields back.    The gentleman from Missouri, Mr. Luetkemeyer, who is the Vice Chairman of this Committee is recognized for 5 minutes.    Mr. LUETKEMEYER. Thank you, Mr. Chairman, and welcome to all the panelists today.    Ms. Harned, I serve on the Financial Services Committee as well and do a lot of work with regards to financial services issues, Dodd-Frank regulations, CFPB and, overreach. In fact, I am the author of the bill to stop Operation Chokepoint which affects lots and lots of small businesses. It is not based on whether they are doing something illegal, but based on the political bent and/or value system of the agencies, DOJ and FDIC in particular, with regards to certain individual industries. What is your experience with your members with regards to Operation Chokepoint, and have you seen a decline since FDIC has changed their policy?    Ms. HARNED. We definitely are hearing more from members on this issue, and this was actually one of the regulatory, rules that has given us great concern. My Legal Center issued an underground regulation report last fall that highlighted the Operation Chokepoint and other mandates that have been coming out of agencies that have not gone through the process, have not had the benefit of Reg Flex. As a result, it seems it is targeted in different areas of the country, and so we are just seeing these complaints, if you will, come up through different industries, different parts of the country. But all of this is something that could have been foreseen had the agency gone through the requirements of the regulatory process instead of doing this through some DOJ memo or however this program unfolded.    Mr. LUETKEMEYER. According to their own emails, their own internal emails, there is a concerted effort and a culture within these agencies that allows this to happen. So my question also, is have you seen as a result of this a decrease in the access to capital for your members?    Ms. HARNED. Honestly, I cannot speak to that. I feel like that would be something for our research team, but I could get back to you.    Mr. LUETKEMEYER. Sure.    Mr. Sullivan, as an advocate for small businesses, I am sure you deal with a lot of different regulatory agencies. Have you seen the willingness of the agencies to work with you with regards to--I know a number of the panelists have made comments about concerns when rules are issued, nobody really does their analysis. I think it was 8 percent of the rules have basically a cost-benefit analysis done on it or any sort of other analysis, which is 92 percent short of the goal of what it should be. When you go back and talk to the bureaucracies, do they recognize this? Are they willing to work with you?    Mr. SULLIVAN. This is another one of the good news, bad news kind of responses to your question, Congressman. The good news is yes, there are pockets of really good practices. You are familiar, certainly, with your work on Financial Services with CFPB. The good news with CFPB is they let you and the small business stakeholders know right at the beginning of a rulemaking that they are going to do a SBREFA panel. I wish EPA would tell everybody that they were going to do it. The challenge then is that when CFPB does it, it does not seem as though they are really incorporating those views into how they approach the regulation. That is kind of a sole agency good news, bad news.    The Department of Transportation has a long history of working very well with SBA's Office of Advocacy. OSHA actually releases its interaction with small business in a report prior to----    Mr. LUETKEMEYER. My question, sir, they are working with you but do they listen? Because I can tell you from talking with folks who have gone to some of these agencies, the fiduciary rule is a recent example. The QM rule with regards to qualified mortgages in CFPB, they ignored the discussion and the visits, because I had a group come to my office, and they said for the 42nd--we were the 42nd group to go in and talk to CFPB about the problems with QM and they said, well, we still know better than you what to do. It appears to me that even though you go talk to them, there is this attitude that we know better than you. Do you see that as prevalent, yes or no?    Mr. SULLIVAN. Congressman, yes, I do see that continue to be a prevalent attitude, unfortunately.    Mr. LUETKEMEYER. This is my concern because as I go home every week and I talk to my small business folks at home and I ask them, if you had one rule or regulation that you could get rid of, what would it be? They will tell me, you know what? It is not one particular one. It is this combination of all of them. It is the straw that finally breaks the camel's back. It is not knowing what is coming to us next that is a concern to us, and as a result, we are sitting on our cash. I have small businesses that are sitting on tons of cash. They want to expand, hire people, put a new line in their manufacturing plant, and cannot because they do not know what is coming down the pike next. It is this uncertainty that causes us to not have, I believe, the kind of economy we could have. When you look at creating fewer businesses in the last 7 years than we have lost, that is a problem, and I know it affects you, Ms. Harned.    I yield back the balance of my time. Thank you.    Chairman CHABOT. Thank you. The gentleman's time is expired.    The Ranking Member, Ms. Velazquez, is recognized for 5 minutes.    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Mr. Knapp, a lack of regulation or regulatory enforcement can often lead to catastrophic results. Environmental disasters, such as those in West Virginia recently, or the BP oil spill, have been devastating to local small businesses. What do you think happened there? Was it lack of regulations or lack of enforcement?    Mr. KNAPP. Thank you. In West Virginia, you are talking about the Elk River Spill. That was actually because, and I know this firsthand. As soon as that spill happened, I was in contact with the businesses there, which cost them, by the way, $19 million a day because they had to shut down their only source of clean drinking water. It was a matter that was not on the radar of anybody. You had this tank and nobody knew what was in it. Nobody was paying attention to it. It did not fall under any guidelines, any rules about how it had to be maintained. After that, the West Virginia legislature actually passed some very strict rules regarding aboveground storage and chemical storage. Unfortunately, the following year they turned around and gutted a lot of it. It is important. Regulations are important. They keep us safe. They protect our environment. They protect small businesses so that they do not have to be shut down when the drinking water is shut down, and they are important. I think everybody here recognizes that regulations do serve a purpose when they are done appropriately and are not too onerous.    I will go back to my statement. If we are talking about everybody thinks it is a good thing that agencies or the SBREFA process or everybody else has better outreach, we better fund it, because if we do not fund it, we are not going to be any better off than we are today. There is no sense in passing something and saying you will do this and then they go, ``well, okay, we do not have time so we are going to still try to not do it''. That is what I think goes on in these agencies with limited resources. It is funny. I was here nearly four years ago testifying before the same Committee, talking about the same thing.    Ms. VELAZQUEZ. Yeah, well, I guess budgets have consequences.    Mr. KNAPP. Yes, they do.    Ms. VELAZQUEZ. Mr. Sullivan, I see in your testimony that you are leading the Coalition for Responsible Business Finance, a group of nontraditional small business lenders. As you know, I also serve on the Financial Services Committee, and I have pushed Director Cordray to issue regulations under Section 1071 of Dodd-Frank that will help us determine whether women-owned and minority-owned businesses are being discriminated against when they are trying to get loans. I will continue to push the director to do what we told him to do when we passed the Dodd-Frank. However, I am curious, from your standpoint, about how the CFPB can get this information without harming small lenders. Do you have an opinion on that?    Mr. SULLIVAN. Thank you, Congresswoman, and thank you for being one of the first members of Congress to meet with the small businesses who are trying to provide capital to small businesses outside of the depository bank arena.    Grady Hedgespeth was just appointed as the head of Small Business at CFPB. He comes from a career at SBA. He is a good guy, and he approaches these issues very thoughtfully and carefully. CFPB has a good start and a good man to hire to do this, but he has a tough challenge ahead. The answer to your question is: CFPB can get it right if it truly meets, listens to, and reacts to small businesses in this space, and that is the principle of the Reg Flex Act. If they do it right, then they will come out with a good regulation.    Ms. VELAZQUEZ. We will be watching for sure. Thank you.    Mr. Knapp, when agencies publish a proposed rule, the Reg Flex Act requires them to describe, and where feasible, estimate the number of small entities to which the proposed rule applies. Agencies often underestimate the number of small businesses impacted by proposed regulations, or simply say that the data is unavailable. Is it your experience that the burden is on small businesses to demonstrate that they will be affected? Mr. Sullivan, I would like to hear your comments on that.    Mr. KNAPP. I do not know how much outreach the EPA did regarding developing the ``waters of the U.S.'' I have been told it was pretty extensive even though they did not go through the SBREFA process. Here is the problem. The problem is, when we even have advocacy and they have the panels, they are usually done in places where most small businesses are not. Okay? They are done in Washington, and that means trade associations are representing them, and trade associations are not necessarily representing the rank and file out there. I do not remember any of them coming to South Carolina to hold anything.    I do not want to say it is the small businesses' responsibility to tell an agency that yes, we will be impacted. I think that if we are going to be doing this type of outreach, they need to have the resources to go out to the small businesses. Instead of putting the burden on small businesses to say they are going to be impacted, let's bring the two of them and let's educate them. Let's take them to where they are and then have those types of conversations.    Ms. VELAZQUEZ. Thank you.    Mr. Sullivan?    Mr. SULLIVAN. Thank you, Congresswoman Velazquez.    First of all, I disagree vehemently with Mr. Knapp's statement that trade associations do not represent their small businesses. I think that is absolutely false, and I think my tenure as chief counsel, my interaction with the trade associations was tremendously helpful to gauge where small businesses come from. They are busy running their businesses, and if they can afford $100 extra to join a trade association, they want the trade association to interact with the agencies so that they can put the lights on and turn the lights off at the end of the day to run their business.    Now, as far as whether or not agencies underestimate or overestimate or who is responsible for the data, agencies have the resources to do the type of economic analysis. They know when they can get help from small businesses through their trade associations. I think the burden under the law is on the agencies to get it right, and I think that should continue to be where the emphasis is for producing analysis that you can benefit from, as well as small business owners in the process.    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Chairman CHABOT. Thank you very much. The gentlelady's time has expired.    The chair would just note for the record that whereas private companies can screw up as they did in the chemical spill in West Virginia, that the government can screw up royally as it did out in Colorado some time ago in the Animas River when the EPA allowed huge amounts to go into the river there. That was the EPA.    I would now like to recognize the gentleman from California, Mr. Knight, for 5 minutes.    Mr. KNIGHT. Thank you, Mr. Chair.    My question is for Mr. Palmieri. Mr. Hardy and I recently wrote a letter to Secretary Perez expressing similar concerns to the testimonies today. As you may know, Mr. Hardy and I are from two very different states--me from California, Mr. Hardy from Nevada--and we approach things quite differently in both of those states. Do your members bring up issues on how these proposed rules would affect them on top of the state regulations in different states?    Mr. PALMIERI. Absolutely. We often have deep sympathy with our members in certain states that have a very challenging regulatory philosophy. Some of our members live in states where the regulatory philosophy is to accomplish the objective but to also remain the most competitive state in the country to attract businesses and invest. Obviously, we also suffer the challenges of, as Ms. Harned mentioned, differing enforcement regimes where a business that might have a facility on two sides of a border, in the Midwest or otherwise, where one of their facilities is in compliance with State inspectors in the program and the other is not, despite doing the same thing and meeting federal standards. There are any number of challenges that they face, and obviously, for some, they have made decisions to leave certain states because of their regulatory regimes or decided not to invest that next dollar or that next job in states that are not as welcoming.    Mr. KNIGHT. Well put. Our job is to kind of get out of our way in California. I think Mr. Hardy's job is to then take our jobs. I asked this because California just passed a minimum wage of $15 an hour, and unfortunately, California sometimes leads, many times in the wrong direction. How do we see this $15 an hour minimum wage? Because it could be moving across the country. I know other states are talking about it and other states are considering this. How will this affect small business? This is for all four panelists. How much will this make the changes? I know that we had a good story about the five Dairy Queens and the change that will happen with the managers and now putting them back to salaried employees. Just the change in flexibility of not being able to allow your employees to have maybe a life instead of the things that the small business is going to have to go through with these huge changes from $8, $9, and $10 an hour, to now $15 an hour.    Ms. HARNED. If I may, this has been something that NFIB has really been on the front lines of in the various states fighting because of the Robert Mayfields of the world. The concern is what it does for the entire workforce because it is not just getting that first employee up to $15 an hour, an employee that you may be training that will eventually be making and truly producing that value for the business. It also means what do you do about Joe that prior to the increase was making $17 an hour or $16 an hour? You are not just raising the labor cost, it is not just the lowest person on the ladder; it is going to impact everyone. When you have the small business owners that we represent that are really sometimes netting $100,000 a year if they are lucky, there is not a lot of money to play with there. The pie is just not getting any bigger.    Mr. KNIGHT. I will use my last couple seconds here. We did a couple roundtables and one of them was with small restaurant owners, and that is the exact issue that they brought up. Look, our cooks do not make $15 an hour. They are making more than that. Now we hire somebody at $15 an hour and somebody is making $18 an hour. Are they going to just say, well, ``that is fine by me; I will just continue to make $18 an hour''? Or are they going to say, ``we would like a bump, too''. It does have that ripple effect throughout the whole business that it is not just the $15 an hour basement, everyone is going to be bumped up. That comes off the bottom line of a small business. It makes it so there are less jobs. Not more jobs, less jobs.    I appreciate the time and I appreciate the panel here today. Thank you, Mr. Chair.    Chairman CHABOT. Thank you very much. The gentleman's time is expired. The chair would just note that like California, the city of Cincinnati--and I happen to be a resident of the city of Cincinnati--they are also now considering enacting a $15 minimum wage, and I can assure you that they did not consult with the chairman of the House Small Business Committee before considering such action.    The gentleman from Nevada, Mr. Hardy, who is the chairman of the Subcommittee on Investigations, Oversight, and Regulations is recognized for 5 minutes.    Mr. HARDY. Thank you, Mr. Chairman, for the opportunity throughout this meeting and bring out some of these issues that are out there. As a former small business owner myself, I might disagree with many on the impact of regulations; I have seen the impact of what regulations do to small businesses. We talk a lot about the small business, but we also have to understand that through the regulation process, small businesses also hurt probably more than anybody else when it impacts big business. I just heard at a hearing this morning about the impact of the steel industry, the regulations on the steel industry and how we cannot compete, or how we have governments backing up things, but the government side does not have anything to do with regulations. It has something to do with what our responsibility is here.    The reason I bring this up, through regulations like ``waters of the U.S.,'' the Clean Water Act, the sick leave rules, all these other little rules that get at it, too, we, as small businesses, feed off many of the big businesses. When it impacts big business, it devastates our market too, and they start to collapse or they start to decline. Things like ``waters of the U.S.'' in Nevada. Really? Clean waters of the U.S. and Clean Water Act in Nevada? You literally could go for hundreds of miles and never find a stream. But because of mining impacts and the costs, it also costs maybe steel products, precious or other metals that help make good quality steel. When that impacts there, it drives costs up and drives the business out of business, so to speak, so we have problems on that end, too. We cannot ever leave out the big business impact. I would like to thank Mr. Knight for signing onto the letter with me for the overtime rule.    Ms. Harned, I would like you to address maybe a little further on what impact this overtime rule has had on small business. You brought it up a little bit but can you go into manufacturing costs of jobs or maybe what other issues might be harmed by this overtime rule?    Ms. HARNED. Right. I think the issue is the jobs. I think that Mr. Mayfield's story really demonstrates that. The other thing that I think is so important to focus on with regard to this rule, we live in a very expensive area, and $50,000 is not what it is in rural Texas. That is one of our biggest complaints with this rule, and we really were asking that the Department look at the fact that you have different markets all over the country. One size definitely does not fit all when it comes to this, and you are, as Mr. Mayfield suggests, punishing people that you are trying to build as managers; making them think as an hourly employee as opposed to doing what is good for the business. I really think, for the small business owners we represent, this rule is very much one of a job loss leader. Lack of sales may definitely come from that, too, because as people lose jobs, they have less money to spend. Our most recent report that was just issued on Tuesday shows now that lack of sales is coming back up as a big factor as to why small businesses are not expanding and doing poorly in this economy still today.    Mr. HARDY. You talk about the impact of the overtime rule, but we have many other impacts--the sick leave rule--that are coming forward. This joint employer rule, which is going to cause a major impact on industries because of the explanation that needs to be understood of where it is really going to stay with the smaller businesses that actually help build up that franchise, so to speak.    A question I can ask of Mr. Palmieri, last year there was 82,035 pages of regulations drafted from January 1 to December 30. Who has to read those pages? How many pages a day is that, by the way? How many employees do we have to have to take care of just to make sure we are not violating regulations?    Mr. PALMIERI. Absolutely. For some of our smallest businesses, it is absolutely impossible. They have to rely on outside expertise, they will pay consultants. They will join trade associations. They will join other groups to help figure out what is coming at them, both what to expect in the future and what is hitting them right now. But you point to a critical piece that is so often missed and that no agency does a good job of, which is to say, in what environment am I adding this new regulatory cost? What is the cumulative burden of the regulations from this agency and all others that have been imposed recently on this industry, this sector, or in the past, that they are still following? That they are still investing in capital equipment to comply with? That cumulative burden, even though this administration has asked agencies to look at it, is never analyzed, is never reviewed, and often is what makes a relatively small rule still very costly at the margin and critical for whether a business remains a profitable concern or not.    Chairman CHABOT. Thank you very much. Thank you. The gentleman's time has expired.    The gentleman from Mississippi, Mr. Kelly, is recognized for 5 minutes.    Mr. KELLY. Mr. Chairman, thank you for holding this hearing, and I thank all of you witnesses for being here. I thank you for your testimony today.    It is frustrating to me. I am new here, and so I still have friends back home that do not know anything about the legislative process, and quite frankly do not want to know anything about the legislative process, and I may join them one day. It is frustrating when you have agency after agency after agency that in the name of trying to help people are continuing to hurt not only the small businesses but also the end user, the customer, the consumer whose prices continue to go up. Whether we are talking about the CFPB or EPA or OSHA or NLRB, they continue to pile on regulations, quite frankly, even to the point that recently there are lobbying groups to support their rules on the front end, which is illegal in some cases. Even when you tell them it is illegal, and I have actually had this in the Ag hearing where they say, ``well, I think they misinterpreted the law''. I think the courts are wrong. The courts did not really mean that. They are wrong in the ruling that they have. We are going to ignore that. We have agencies that are out of control. We need good regulation in government. I think everyone in the panel would agree with that. We need reasonable regulation, and we need regulation that prevents cheaters, but we do not need burdens on our backs. Fifty thousand dollars a year is a lot of money in Mississippi, where I live. We cannot afford $15 an hour, especially when it is a graduated scale where you are punishing your hard workers, people like my wife who works, who does not make New York wages, it is difficult. So how do we stop them? Because they put up comment periods. They pay groups to go and comment what they want to say what a great rule it is, either legally or illegally. Groups do that. The number of comments does not equal the number of people it affects, and quite frankly, most small businesses cannot read it, do not have the time to read it, or are not articulate enough to organize to put those right messages on there. How do we stop it in Congress? How do we stop the ridiculous regulations that keep coming? I will just start with you, Ms. Harned, and see, what can we do?    Ms. HARNED. That is the million-dollar question. I think one thing that can happen that would be helpful is, as we have seen with these big comprehensive bills, whether it is Obamacare or Dodd-Frank or whatever, there is way too much left unsaid in the statutory language, which means that the agencies get a clear path to fill in the blanks, if you will. Then you have years of jurisprudence in the courts that only give them the green light for that, saying we are going to defer to you, we are not going to second guess you. We have created, as an old professor Jonathan Turley said, the fourth branch of government now with these agencies. I really feel like starting in Congress, write clear, small, very direct legislation, and then aggressive oversight is also critical.    Mr. KELLY. That is one of the things that is really frustrating to me, if I vote wrong and I do things that are stupid, my folks will send me home. I am accountable. If I make too many of the wrong votes or do things the wrong way, I am accountable. I go home. The President is accountable to the people. He is elected by the people, and if he makes the wrong decisions, whoever our next president is, he/she, it does not matter. If they make enough of the wrong decisions, the people will send them home. The same with our Senate. The problem is, these regulatory agencies, they do not even go to jail for breaking the law. There is no accountability whatsoever. They are not elected, they do not care what the people think, and they do not care what the voters think because they do not answer to the voters. They do not answer to the President. They do not answer to the Congress. They do not answer to the courts. They think that they are untouchable, and we have to figure out a way. I do not think any rule or regulation, if it was up to me, none of them, unless they were approved by Congress, would ever be acted into regulation. I do not care the cost because I think we owe a duty, and I think we have to get away from regulators running this country. The fourth branch of government, which I would argue right now until we do something, is the most powerful branch of government in spite of that is not the best thing for this nation. I think there are some really good people who work there. I do not think they are all bad people, and I think people have really good motives. But at the end of the day, I think we have to rule on the amount of excessive regulation. I yield back.    Chairman CHABOT. Thank you. The gentleman yields back.    The chair was considering going into a second round and asking another question, but I cannot improve on what the gentleman from Mississippi just said. So I am going to end it there.    We want to thank all the witnesses for being here today. Today's hearing highlighted how regulations that are often created without assessing the real world consequences for small businesses can result in unnecessary and excessive regulatory burdens, especially on small businesses. At the core of this problem, I think to some degree, is the agency's failure to comply with the Regulatory Flexibility Act. This Committee will continue to closely monitor agencies' regulatory activities and work on solutions that will ensure full compliance with the law.    I would ask unanimous consent that members have 5 legislative days to submit statements and supporting materials for the record. If there is no further business to come before the Committee, we are adjourned. Thank you very much.</t>
@@ -454,11 +451,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99835.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99835.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chair, I yield back.    Chairman CHABOT. Thank you. The gentlelady yields back.    The gentleman from Missouri, Mr. Luetkemeyer, who is the Vice Chairman of this Committee is recognized for 5 minutes.    Mr. LUETKEMEYER. Thank you, Mr. Chairman, and welcome to all the panelists today.    Ms. Harned, I serve on the Financial Services Committee as well and do a lot of work with regards to financial services issues, Dodd-Frank regulations, CFPB and, overreach. In fact, I am the author of the bill to stop Operation Chokepoint which affects lots and lots of small businesses. It is not based on whether they are doing something illegal, but based on the political bent and/or value system of the agencies, DOJ and FDIC in particular, with regards to certain individual industries. What is your experience with your members with regards to Operation Chokepoint, and have you seen a decline since FDIC has changed their policy?    Ms. HARNED. We definitely are hearing more from members on this issue, and this was actually one of the regulatory, rules that has given us great concern. My Legal Center issued an underground regulation report last fall that highlighted the Operation Chokepoint and other mandates that have been coming out of agencies that have not gone through the process, have not had the benefit of Reg Flex. As a result, it seems it is targeted in different areas of the country, and so we are just seeing these complaints, if you will, come up through different industries, different parts of the country. But all of this is something that could have been foreseen had the agency gone through the requirements of the regulatory process instead of doing this through some DOJ memo or however this program unfolded.    Mr. LUETKEMEYER. According to their own emails, their own internal emails, there is a concerted effort and a culture within these agencies that allows this to happen. So my question also, is have you seen as a result of this a decrease in the access to capital for your members?    Ms. HARNED. Honestly, I cannot speak to that. I feel like that would be something for our research team, but I could get back to you.    Mr. LUETKEMEYER. Sure.    Mr. Sullivan, as an advocate for small businesses, I am sure you deal with a lot of different regulatory agencies. Have you seen the willingness of the agencies to work with you with regards to--I know a number of the panelists have made comments about concerns when rules are issued, nobody really does their analysis. I think it was 8 percent of the rules have basically a cost-benefit analysis done on it or any sort of other analysis, which is 92 percent short of the goal of what it should be. When you go back and talk to the bureaucracies, do they recognize this? Are they willing to work with you?    Mr. SULLIVAN. This is another one of the good news, bad news kind of responses to your question, Congressman. The good news is yes, there are pockets of really good practices. You are familiar, certainly, with your work on Financial Services with CFPB. The good news with CFPB is they let you and the small business stakeholders know right at the beginning of a rulemaking that they are going to do a SBREFA panel. I wish EPA would tell everybody that they were going to do it. The challenge then is that when CFPB does it, it does not seem as though they are really incorporating those views into how they approach the regulation. That is kind of a sole agency good news, bad news.    The Department of Transportation has a long history of working very well with SBA's Office of Advocacy. OSHA actually releases its interaction with small business in a report prior to----    Mr. LUETKEMEYER. My question, sir, they are working with you but do they listen? Because I can tell you from talking with folks who have gone to some of these agencies, the fiduciary rule is a recent example. The QM rule with regards to qualified mortgages in CFPB, they ignored the discussion and the visits, because I had a group come to my office, and they said for the 42nd--we were the 42nd group to go in and talk to CFPB about the problems with QM and they said, well, we still know better than you what to do. It appears to me that even though you go talk to them, there is this attitude that we know better than you. Do you see that as prevalent, yes or no?    Mr. SULLIVAN. Congressman, yes, I do see that continue to be a prevalent attitude, unfortunately.    Mr. LUETKEMEYER. This is my concern because as I go home every week and I talk to my small business folks at home and I ask them, if you had one rule or regulation that you could get rid of, what would it be? They will tell me, you know what? It is not one particular one. It is this combination of all of them. It is the straw that finally breaks the camel's back. It is not knowing what is coming to us next that is a concern to us, and as a result, we are sitting on our cash. I have small businesses that are sitting on tons of cash. They want to expand, hire people, put a new line in their manufacturing plant, and cannot because they do not know what is coming down the pike next. It is this uncertainty that causes us to not have, I believe, the kind of economy we could have. When you look at creating fewer businesses in the last 7 years than we have lost, that is a problem, and I know it affects you, Ms. Harned.    I yield back the balance of my time. Thank you.    Chairman CHABOT. Thank you. The gentleman's time is expired.    The Ranking Member, Ms. Velazquez, is recognized for 5 minutes.    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Mr. Knapp, a lack of regulation or regulatory enforcement can often lead to catastrophic results. Environmental disasters, such as those in West Virginia recently, or the BP oil spill, have been devastating to local small businesses. What do you think happened there? Was it lack of regulations or lack of enforcement?    Mr. KNAPP. Thank you. In West Virginia, you are talking about the Elk River Spill. That was actually because, and I know this firsthand. As soon as that spill happened, I was in contact with the businesses there, which cost them, by the way, $19 million a day because they had to shut down their only source of clean drinking water. It was a matter that was not on the radar of anybody. You had this tank and nobody knew what was in it. Nobody was paying attention to it. It did not fall under any guidelines, any rules about how it had to be maintained. After that, the West Virginia legislature actually passed some very strict rules regarding aboveground storage and chemical storage. Unfortunately, the following year they turned around and gutted a lot of it. It is important. Regulations are important. They keep us safe. They protect our environment. They protect small businesses so that they do not have to be shut down when the drinking water is shut down, and they are important. I think everybody here recognizes that regulations do serve a purpose when they are done appropriately and are not too onerous.    I will go back to my statement. If we are talking about everybody thinks it is a good thing that agencies or the SBREFA process or everybody else has better outreach, we better fund it, because if we do not fund it, we are not going to be any better off than we are today. There is no sense in passing something and saying you will do this and then they go, ``well, okay, we do not have time so we are going to still try to not do it''. That is what I think goes on in these agencies with limited resources. It is funny. I was here nearly four years ago testifying before the same Committee, talking about the same thing.    Ms. VELAZQUEZ. Yeah, well, I guess budgets have consequences.    Mr. KNAPP. Yes, they do.    Ms. VELAZQUEZ. Mr. Sullivan, I see in your testimony that you are leading the Coalition for Responsible Business Finance, a group of nontraditional small business lenders. As you know, I also serve on the Financial Services Committee, and I have pushed Director Cordray to issue regulations under Section 1071 of Dodd-Frank that will help us determine whether women-owned and minority-owned businesses are being discriminated against when they are trying to get loans. I will continue to push the director to do what we told him to do when we passed the Dodd-Frank. However, I am curious, from your standpoint, about how the CFPB can get this information without harming small lenders. Do you have an opinion on that?    Mr. SULLIVAN. Thank you, Congresswoman, and thank you for being one of the first members of Congress to meet with the small businesses who are trying to provide capital to small businesses outside of the depository bank arena.    Grady Hedgespeth was just appointed as the head of Small Business at CFPB. He comes from a career at SBA. He is a good guy, and he approaches these issues very thoughtfully and carefully. CFPB has a good start and a good man to hire to do this, but he has a tough challenge ahead. The answer to your question is: CFPB can get it right if it truly meets, listens to, and reacts to small businesses in this space, and that is the principle of the Reg Flex Act. If they do it right, then they will come out with a good regulation.    Ms. VELAZQUEZ. We will be watching for sure. Thank you.    Mr. Knapp, when agencies publish a proposed rule, the Reg Flex Act requires them to describe, and where feasible, estimate the number of small entities to which the proposed rule applies. Agencies often underestimate the number of small businesses impacted by proposed regulations, or simply say that the data is unavailable. Is it your experience that the burden is on small businesses to demonstrate that they will be affected? Mr. Sullivan, I would like to hear your comments on that.    Mr. KNAPP. I do not know how much outreach the EPA did regarding developing the ``waters of the U.S.'' I have been told it was pretty extensive even though they did not go through the SBREFA process. Here is the problem. The problem is, when we even have advocacy and they have the panels, they are usually done in places where most small businesses are not. Okay? They are done in Washington, and that means trade associations are representing them, and trade associations are not necessarily representing the rank and file out there. I do not remember any of them coming to South Carolina to hold anything.    I do not want to say it is the small businesses' responsibility to tell an agency that yes, we will be impacted. I think that if we are going to be doing this type of outreach, they need to have the resources to go out to the small businesses. Instead of putting the burden on small businesses to say they are going to be impacted, let's bring the two of them and let's educate them. Let's take them to where they are and then have those types of conversations.    Ms. VELAZQUEZ. Thank you.    Mr. Sullivan?    Mr. SULLIVAN. Thank you, Congresswoman Velazquez.    First of all, I disagree vehemently with Mr. Knapp's statement that trade associations do not represent their small businesses. I think that is absolutely false, and I think my tenure as chief counsel, my interaction with the trade associations was tremendously helpful to gauge where small businesses come from. They are busy running their businesses, and if they can afford $100 extra to join a trade association, they want the trade association to interact with the agencies so that they can put the lights on and turn the lights off at the end of the day to run their business.    Now, as far as whether or not agencies underestimate or overestimate or who is responsible for the data, agencies have the resources to do the type of economic analysis. They know when they can get help from small businesses through their trade associations. I think the burden under the law is on the agencies to get it right, and I think that should continue to be where the emphasis is for producing analysis that you can benefit from, as well as small business owners in the process.    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Chairman CHABOT. Thank you very much. The gentlelady's time has expired.    The chair would just note for the record that whereas private companies can screw up as they did in the chemical spill in West Virginia, that the government can screw up royally as it did out in Colorado some time ago in the Animas River when the EPA allowed huge amounts to go into the river there. That was the EPA.    I would now like to recognize the gentleman from California, Mr. Knight, for 5 minutes.    Mr. KNIGHT. Thank you, Mr. Chair.    My question is for Mr. Palmieri. Mr. Hardy and I recently wrote a letter to Secretary Perez expressing similar concerns to the testimonies today. As you may know, Mr. Hardy and I are from two very different states--me from California, Mr. Hardy from Nevada--and we approach things quite differently in both of those states. Do your members bring up issues on how these proposed rules would affect them on top of the state regulations in different states?    Mr. PALMIERI. Absolutely. We often have deep sympathy with our members in certain states that have a very challenging regulatory philosophy. Some of our members live in states where the regulatory philosophy is to accomplish the objective but to also remain the most competitive state in the country to attract businesses and invest. Obviously, we also suffer the challenges of, as Ms. Harned mentioned, differing enforcement regimes where a business that might have a facility on two sides of a border, in the Midwest or otherwise, where one of their facilities is in compliance with State inspectors in the program and the other is not, despite doing the same thing and meeting federal standards. There are any number of challenges that they face, and obviously, for some, they have made decisions to leave certain states because of their regulatory regimes or decided not to invest that next dollar or that next job in states that are not as welcoming.    Mr. KNIGHT. Well put. Our job is to kind of get out of our way in California. I think Mr. Hardy's job is to then take our jobs. I asked this because California just passed a minimum wage of $15 an hour, and unfortunately, California sometimes leads, many times in the wrong direction. How do we see this $15 an hour minimum wage? Because it could be moving across the country. I know other states are talking about it and other states are considering this. How will this affect small business? This is for all four panelists. How much will this make the changes? I know that we had a good story about the five Dairy Queens and the change that will happen with the managers and now putting them back to salaried employees. Just the change in flexibility of not being able to allow your employees to have maybe a life instead of the things that the small business is going to have to go through with these huge changes from $8, $9, and $10 an hour, to now $15 an hour.    Ms. HARNED. If I may, this has been something that NFIB has really been on the front lines of in the various states fighting because of the Robert Mayfields of the world. The concern is what it does for the entire workforce because it is not just getting that first employee up to $15 an hour, an employee that you may be training that will eventually be making and truly producing that value for the business. It also means what do you do about Joe that prior to the increase was making $17 an hour or $16 an hour? You are not just raising the labor cost, it is not just the lowest person on the ladder; it is going to impact everyone. When you have the small business owners that we represent that are really sometimes netting $100,000 a year if they are lucky, there is not a lot of money to play with there. The pie is just not getting any bigger.    Mr. KNIGHT. I will use my last couple seconds here. We did a couple roundtables and one of them was with small restaurant owners, and that is the exact issue that they brought up. Look, our cooks do not make $15 an hour. They are making more than that. Now we hire somebody at $15 an hour and somebody is making $18 an hour. Are they going to just say, well, ``that is fine by me; I will just continue to make $18 an hour''? Or are they going to say, ``we would like a bump, too''. It does have that ripple effect throughout the whole business that it is not just the $15 an hour basement, everyone is going to be bumped up. That comes off the bottom line of a small business. It makes it so there are less jobs. Not more jobs, less jobs.    I appreciate the time and I appreciate the panel here today. Thank you, Mr. Chair.    Chairman CHABOT. Thank you very much. The gentleman's time is expired. The chair would just note that like California, the city of Cincinnati--and I happen to be a resident of the city of Cincinnati--they are also now considering enacting a $15 minimum wage, and I can assure you that they did not consult with the chairman of the House Small Business Committee before considering such action.    The gentleman from Nevada, Mr. Hardy, who is the chairman of the Subcommittee on Investigations, Oversight, and Regulations is recognized for 5 minutes.    Mr. HARDY. Thank you, Mr. Chairman, for the opportunity throughout this meeting and bring out some of these issues that are out there. As a former small business owner myself, I might disagree with many on the impact of regulations; I have seen the impact of what regulations do to small businesses. We talk a lot about the small business, but we also have to understand that through the regulation process, small businesses also hurt probably more than anybody else when it impacts big business. I just heard at a hearing this morning about the impact of the steel industry, the regulations on the steel industry and how we cannot compete, or how we have governments backing up things, but the government side does not have anything to do with regulations. It has something to do with what our responsibility is here.    The reason I bring this up, through regulations like ``waters of the U.S.,'' the Clean Water Act, the sick leave rules, all these other little rules that get at it, too, we, as small businesses, feed off many of the big businesses. When it impacts big business, it devastates our market too, and they start to collapse or they start to decline. Things like ``waters of the U.S.'' in Nevada. Really? Clean waters of the U.S. and Clean Water Act in Nevada? You literally could go for hundreds of miles and never find a stream. But because of mining impacts and the costs, it also costs maybe steel products, precious or other metals that help make good quality steel. When that impacts there, it drives costs up and drives the business out of business, so to speak, so we have problems on that end, too. We cannot ever leave out the big business impact. I would like to thank Mr. Knight for signing onto the letter with me for the overtime rule.    Ms. Harned, I would like you to address maybe a little further on what impact this overtime rule has had on small business. You brought it up a little bit but can you go into manufacturing costs of jobs or maybe what other issues might be harmed by this overtime rule?    Ms. HARNED. Right. I think the issue is the jobs. I think that Mr. Mayfield's story really demonstrates that. The other thing that I think is so important to focus on with regard to this rule, we live in a very expensive area, and $50,000 is not what it is in rural Texas. That is one of our biggest complaints with this rule, and we really were asking that the Department look at the fact that you have different markets all over the country. One size definitely does not fit all when it comes to this, and you are, as Mr. Mayfield suggests, punishing people that you are trying to build as managers; making them think as an hourly employee as opposed to doing what is good for the business. I really think, for the small business owners we represent, this rule is very much one of a job loss leader. Lack of sales may definitely come from that, too, because as people lose jobs, they have less money to spend. Our most recent report that was just issued on Tuesday shows now that lack of sales is coming back up as a big factor as to why small businesses are not expanding and doing poorly in this economy still today.    Mr. HARDY. You talk about the impact of the overtime rule, but we have many other impacts--the sick leave rule--that are coming forward. This joint employer rule, which is going to cause a major impact on industries because of the explanation that needs to be understood of where it is really going to stay with the smaller businesses that actually help build up that franchise, so to speak.    A question I can ask of Mr. Palmieri, last year there was 82,035 pages of regulations drafted from January 1 to December 30. Who has to read those pages? How many pages a day is that, by the way? How many employees do we have to have to take care of just to make sure we are not violating regulations?    Mr. PALMIERI. Absolutely. For some of our smallest businesses, it is absolutely impossible. They have to rely on outside expertise, they will pay consultants. They will join trade associations. They will join other groups to help figure out what is coming at them, both what to expect in the future and what is hitting them right now. But you point to a critical piece that is so often missed and that no agency does a good job of, which is to say, in what environment am I adding this new regulatory cost? What is the cumulative burden of the regulations from this agency and all others that have been imposed recently on this industry, this sector, or in the past, that they are still following? That they are still investing in capital equipment to comply with? That cumulative burden, even though this administration has asked agencies to look at it, is never analyzed, is never reviewed, and often is what makes a relatively small rule still very costly at the margin and critical for whether a business remains a profitable concern or not.    Chairman CHABOT. Thank you very much. Thank you. The gentleman's time has expired.    The gentleman from Mississippi, Mr. Kelly, is recognized for 5 minutes.    Mr. KELLY. Mr. Chairman, thank you for holding this hearing, and I thank all of you witnesses for being here. I thank you for your testimony today.    It is frustrating to me. I am new here, and so I still have friends back home that do not know anything about the legislative process, and quite frankly do not want to know anything about the legislative process, and I may join them one day. It is frustrating when you have agency after agency after agency that in the name of trying to help people are continuing to hurt not only the small businesses but also the end user, the customer, the consumer whose prices continue to go up. Whether we are talking about the CFPB or EPA or OSHA or NLRB, they continue to pile on regulations, quite frankly, even to the point that recently there are lobbying groups to support their rules on the front end, which is illegal in some cases. Even when you tell them it is illegal, and I have actually had this in the Ag hearing where they say, ``well, I think they misinterpreted the law''. I think the courts are wrong. The courts did not really mean that. They are wrong in the ruling that they have. We are going to ignore that. We have agencies that are out of control. We need good regulation in government. I think everyone in the panel would agree with that. We need reasonable regulation, and we need regulation that prevents cheaters, but we do not need burdens on our backs. Fifty thousand dollars a year is a lot of money in Mississippi, where I live. We cannot afford $15 an hour, especially when it is a graduated scale where you are punishing your hard workers, people like my wife who works, who does not make New York wages, it is difficult. So how do we stop them? Because they put up comment periods. They pay groups to go and comment what they want to say what a great rule it is, either legally or illegally. Groups do that. The number of comments does not equal the number of people it affects, and quite frankly, most small businesses cannot read it, do not have the time to read it, or are not articulate enough to organize to put those right messages on there. How do we stop it in Congress? How do we stop the ridiculous regulations that keep coming? I will just start with you, Ms. Harned, and see, what can we do?    Ms. HARNED. That is the million-dollar question. I think one thing that can happen that would be helpful is, as we have seen with these big comprehensive bills, whether it is Obamacare or Dodd-Frank or whatever, there is way too much left unsaid in the statutory language, which means that the agencies get a clear path to fill in the blanks, if you will. Then you have years of jurisprudence in the courts that only give them the green light for that, saying we are going to defer to you, we are not going to second guess you. We have created, as an old professor Jonathan Turley said, the fourth branch of government now with these agencies. I really feel like starting in Congress, write clear, small, very direct legislation, and then aggressive oversight is also critical.    Mr. KELLY. That is one of the things that is really frustrating to me, if I vote wrong and I do things that are stupid, my folks will send me home. I am accountable. If I make too many of the wrong votes or do things the wrong way, I am accountable. I go home. The President is accountable to the people. He is elected by the people, and if he makes the wrong decisions, whoever our next president is, he/she, it does not matter. If they make enough of the wrong decisions, the people will send them home. The same with our Senate. The problem is, these regulatory agencies, they do not even go to jail for breaking the law. There is no accountability whatsoever. They are not elected, they do not care what the people think, and they do not care what the voters think because they do not answer to the voters. They do not answer to the President. They do not answer to the Congress. They do not answer to the courts. They think that they are untouchable, and we have to figure out a way. I do not think any rule or regulation, if it was up to me, none of them, unless they were approved by Congress, would ever be acted into regulation. I do not care the cost because I think we owe a duty, and I think we have to get away from regulators running this country. The fourth branch of government, which I would argue right now until we do something, is the most powerful branch of government in spite of that is not the best thing for this nation. I think there are some really good people who work there. I do not think they are all bad people, and I think people have really good motives. But at the end of the day, I think we have to rule on the amount of excessive regulation. I yield back.    Chairman CHABOT. Thank you. The gentleman yields back.    The chair was considering going into a second round and asking another question, but I cannot improve on what the gentleman from Mississippi just said. So I am going to end it there.    We want to thank all the witnesses for being here today. Today's hearing highlighted how regulations that are often created without assessing the real world consequences for small businesses can result in unnecessary and excessive regulatory burdens, especially on small businesses. At the core of this problem, I think to some degree, is the agency's failure to comply with the Regulatory Flexibility Act. This Committee will continue to closely monitor agencies' regulatory activities and work on solutions that will ensure full compliance with the law.    I would ask unanimous consent that members have 5 legislative days to submit statements and supporting materials for the record. If there is no further business to come before the Committee, we are adjourned. Thank you very much.</t>
@@ -401,7 +410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,29 +440,37 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99835.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99835.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,13 +58,286 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Chabot</t>
   </si>
   <si>
     <t>Steve</t>
   </si>
   <si>
-    <t xml:space="preserve">    Mr. Chair, I yield back.    Chairman CHABOT. Thank you. The gentlelady yields back.    The gentleman from Missouri, Mr. Luetkemeyer, who is the Vice Chairman of this Committee is recognized for 5 minutes.    Mr. LUETKEMEYER. Thank you, Mr. Chairman, and welcome to all the panelists today.    Ms. Harned, I serve on the Financial Services Committee as well and do a lot of work with regards to financial services issues, Dodd-Frank regulations, CFPB and, overreach. In fact, I am the author of the bill to stop Operation Chokepoint which affects lots and lots of small businesses. It is not based on whether they are doing something illegal, but based on the political bent and/or value system of the agencies, DOJ and FDIC in particular, with regards to certain individual industries. What is your experience with your members with regards to Operation Chokepoint, and have you seen a decline since FDIC has changed their policy?    Ms. HARNED. We definitely are hearing more from members on this issue, and this was actually one of the regulatory, rules that has given us great concern. My Legal Center issued an underground regulation report last fall that highlighted the Operation Chokepoint and other mandates that have been coming out of agencies that have not gone through the process, have not had the benefit of Reg Flex. As a result, it seems it is targeted in different areas of the country, and so we are just seeing these complaints, if you will, come up through different industries, different parts of the country. But all of this is something that could have been foreseen had the agency gone through the requirements of the regulatory process instead of doing this through some DOJ memo or however this program unfolded.    Mr. LUETKEMEYER. According to their own emails, their own internal emails, there is a concerted effort and a culture within these agencies that allows this to happen. So my question also, is have you seen as a result of this a decrease in the access to capital for your members?    Ms. HARNED. Honestly, I cannot speak to that. I feel like that would be something for our research team, but I could get back to you.    Mr. LUETKEMEYER. Sure.    Mr. Sullivan, as an advocate for small businesses, I am sure you deal with a lot of different regulatory agencies. Have you seen the willingness of the agencies to work with you with regards to--I know a number of the panelists have made comments about concerns when rules are issued, nobody really does their analysis. I think it was 8 percent of the rules have basically a cost-benefit analysis done on it or any sort of other analysis, which is 92 percent short of the goal of what it should be. When you go back and talk to the bureaucracies, do they recognize this? Are they willing to work with you?    Mr. SULLIVAN. This is another one of the good news, bad news kind of responses to your question, Congressman. The good news is yes, there are pockets of really good practices. You are familiar, certainly, with your work on Financial Services with CFPB. The good news with CFPB is they let you and the small business stakeholders know right at the beginning of a rulemaking that they are going to do a SBREFA panel. I wish EPA would tell everybody that they were going to do it. The challenge then is that when CFPB does it, it does not seem as though they are really incorporating those views into how they approach the regulation. That is kind of a sole agency good news, bad news.    The Department of Transportation has a long history of working very well with SBA's Office of Advocacy. OSHA actually releases its interaction with small business in a report prior to----    Mr. LUETKEMEYER. My question, sir, they are working with you but do they listen? Because I can tell you from talking with folks who have gone to some of these agencies, the fiduciary rule is a recent example. The QM rule with regards to qualified mortgages in CFPB, they ignored the discussion and the visits, because I had a group come to my office, and they said for the 42nd--we were the 42nd group to go in and talk to CFPB about the problems with QM and they said, well, we still know better than you what to do. It appears to me that even though you go talk to them, there is this attitude that we know better than you. Do you see that as prevalent, yes or no?    Mr. SULLIVAN. Congressman, yes, I do see that continue to be a prevalent attitude, unfortunately.    Mr. LUETKEMEYER. This is my concern because as I go home every week and I talk to my small business folks at home and I ask them, if you had one rule or regulation that you could get rid of, what would it be? They will tell me, you know what? It is not one particular one. It is this combination of all of them. It is the straw that finally breaks the camel's back. It is not knowing what is coming to us next that is a concern to us, and as a result, we are sitting on our cash. I have small businesses that are sitting on tons of cash. They want to expand, hire people, put a new line in their manufacturing plant, and cannot because they do not know what is coming down the pike next. It is this uncertainty that causes us to not have, I believe, the kind of economy we could have. When you look at creating fewer businesses in the last 7 years than we have lost, that is a problem, and I know it affects you, Ms. Harned.    I yield back the balance of my time. Thank you.    Chairman CHABOT. Thank you. The gentleman's time is expired.    The Ranking Member, Ms. Velazquez, is recognized for 5 minutes.    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Mr. Knapp, a lack of regulation or regulatory enforcement can often lead to catastrophic results. Environmental disasters, such as those in West Virginia recently, or the BP oil spill, have been devastating to local small businesses. What do you think happened there? Was it lack of regulations or lack of enforcement?    Mr. KNAPP. Thank you. In West Virginia, you are talking about the Elk River Spill. That was actually because, and I know this firsthand. As soon as that spill happened, I was in contact with the businesses there, which cost them, by the way, $19 million a day because they had to shut down their only source of clean drinking water. It was a matter that was not on the radar of anybody. You had this tank and nobody knew what was in it. Nobody was paying attention to it. It did not fall under any guidelines, any rules about how it had to be maintained. After that, the West Virginia legislature actually passed some very strict rules regarding aboveground storage and chemical storage. Unfortunately, the following year they turned around and gutted a lot of it. It is important. Regulations are important. They keep us safe. They protect our environment. They protect small businesses so that they do not have to be shut down when the drinking water is shut down, and they are important. I think everybody here recognizes that regulations do serve a purpose when they are done appropriately and are not too onerous.    I will go back to my statement. If we are talking about everybody thinks it is a good thing that agencies or the SBREFA process or everybody else has better outreach, we better fund it, because if we do not fund it, we are not going to be any better off than we are today. There is no sense in passing something and saying you will do this and then they go, ``well, okay, we do not have time so we are going to still try to not do it''. That is what I think goes on in these agencies with limited resources. It is funny. I was here nearly four years ago testifying before the same Committee, talking about the same thing.    Ms. VELAZQUEZ. Yeah, well, I guess budgets have consequences.    Mr. KNAPP. Yes, they do.    Ms. VELAZQUEZ. Mr. Sullivan, I see in your testimony that you are leading the Coalition for Responsible Business Finance, a group of nontraditional small business lenders. As you know, I also serve on the Financial Services Committee, and I have pushed Director Cordray to issue regulations under Section 1071 of Dodd-Frank that will help us determine whether women-owned and minority-owned businesses are being discriminated against when they are trying to get loans. I will continue to push the director to do what we told him to do when we passed the Dodd-Frank. However, I am curious, from your standpoint, about how the CFPB can get this information without harming small lenders. Do you have an opinion on that?    Mr. SULLIVAN. Thank you, Congresswoman, and thank you for being one of the first members of Congress to meet with the small businesses who are trying to provide capital to small businesses outside of the depository bank arena.    Grady Hedgespeth was just appointed as the head of Small Business at CFPB. He comes from a career at SBA. He is a good guy, and he approaches these issues very thoughtfully and carefully. CFPB has a good start and a good man to hire to do this, but he has a tough challenge ahead. The answer to your question is: CFPB can get it right if it truly meets, listens to, and reacts to small businesses in this space, and that is the principle of the Reg Flex Act. If they do it right, then they will come out with a good regulation.    Ms. VELAZQUEZ. We will be watching for sure. Thank you.    Mr. Knapp, when agencies publish a proposed rule, the Reg Flex Act requires them to describe, and where feasible, estimate the number of small entities to which the proposed rule applies. Agencies often underestimate the number of small businesses impacted by proposed regulations, or simply say that the data is unavailable. Is it your experience that the burden is on small businesses to demonstrate that they will be affected? Mr. Sullivan, I would like to hear your comments on that.    Mr. KNAPP. I do not know how much outreach the EPA did regarding developing the ``waters of the U.S.'' I have been told it was pretty extensive even though they did not go through the SBREFA process. Here is the problem. The problem is, when we even have advocacy and they have the panels, they are usually done in places where most small businesses are not. Okay? They are done in Washington, and that means trade associations are representing them, and trade associations are not necessarily representing the rank and file out there. I do not remember any of them coming to South Carolina to hold anything.    I do not want to say it is the small businesses' responsibility to tell an agency that yes, we will be impacted. I think that if we are going to be doing this type of outreach, they need to have the resources to go out to the small businesses. Instead of putting the burden on small businesses to say they are going to be impacted, let's bring the two of them and let's educate them. Let's take them to where they are and then have those types of conversations.    Ms. VELAZQUEZ. Thank you.    Mr. Sullivan?    Mr. SULLIVAN. Thank you, Congresswoman Velazquez.    First of all, I disagree vehemently with Mr. Knapp's statement that trade associations do not represent their small businesses. I think that is absolutely false, and I think my tenure as chief counsel, my interaction with the trade associations was tremendously helpful to gauge where small businesses come from. They are busy running their businesses, and if they can afford $100 extra to join a trade association, they want the trade association to interact with the agencies so that they can put the lights on and turn the lights off at the end of the day to run their business.    Now, as far as whether or not agencies underestimate or overestimate or who is responsible for the data, agencies have the resources to do the type of economic analysis. They know when they can get help from small businesses through their trade associations. I think the burden under the law is on the agencies to get it right, and I think that should continue to be where the emphasis is for producing analysis that you can benefit from, as well as small business owners in the process.    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Chairman CHABOT. Thank you very much. The gentlelady's time has expired.    The chair would just note for the record that whereas private companies can screw up as they did in the chemical spill in West Virginia, that the government can screw up royally as it did out in Colorado some time ago in the Animas River when the EPA allowed huge amounts to go into the river there. That was the EPA.    I would now like to recognize the gentleman from California, Mr. Knight, for 5 minutes.    Mr. KNIGHT. Thank you, Mr. Chair.    My question is for Mr. Palmieri. Mr. Hardy and I recently wrote a letter to Secretary Perez expressing similar concerns to the testimonies today. As you may know, Mr. Hardy and I are from two very different states--me from California, Mr. Hardy from Nevada--and we approach things quite differently in both of those states. Do your members bring up issues on how these proposed rules would affect them on top of the state regulations in different states?    Mr. PALMIERI. Absolutely. We often have deep sympathy with our members in certain states that have a very challenging regulatory philosophy. Some of our members live in states where the regulatory philosophy is to accomplish the objective but to also remain the most competitive state in the country to attract businesses and invest. Obviously, we also suffer the challenges of, as Ms. Harned mentioned, differing enforcement regimes where a business that might have a facility on two sides of a border, in the Midwest or otherwise, where one of their facilities is in compliance with State inspectors in the program and the other is not, despite doing the same thing and meeting federal standards. There are any number of challenges that they face, and obviously, for some, they have made decisions to leave certain states because of their regulatory regimes or decided not to invest that next dollar or that next job in states that are not as welcoming.    Mr. KNIGHT. Well put. Our job is to kind of get out of our way in California. I think Mr. Hardy's job is to then take our jobs. I asked this because California just passed a minimum wage of $15 an hour, and unfortunately, California sometimes leads, many times in the wrong direction. How do we see this $15 an hour minimum wage? Because it could be moving across the country. I know other states are talking about it and other states are considering this. How will this affect small business? This is for all four panelists. How much will this make the changes? I know that we had a good story about the five Dairy Queens and the change that will happen with the managers and now putting them back to salaried employees. Just the change in flexibility of not being able to allow your employees to have maybe a life instead of the things that the small business is going to have to go through with these huge changes from $8, $9, and $10 an hour, to now $15 an hour.    Ms. HARNED. If I may, this has been something that NFIB has really been on the front lines of in the various states fighting because of the Robert Mayfields of the world. The concern is what it does for the entire workforce because it is not just getting that first employee up to $15 an hour, an employee that you may be training that will eventually be making and truly producing that value for the business. It also means what do you do about Joe that prior to the increase was making $17 an hour or $16 an hour? You are not just raising the labor cost, it is not just the lowest person on the ladder; it is going to impact everyone. When you have the small business owners that we represent that are really sometimes netting $100,000 a year if they are lucky, there is not a lot of money to play with there. The pie is just not getting any bigger.    Mr. KNIGHT. I will use my last couple seconds here. We did a couple roundtables and one of them was with small restaurant owners, and that is the exact issue that they brought up. Look, our cooks do not make $15 an hour. They are making more than that. Now we hire somebody at $15 an hour and somebody is making $18 an hour. Are they going to just say, well, ``that is fine by me; I will just continue to make $18 an hour''? Or are they going to say, ``we would like a bump, too''. It does have that ripple effect throughout the whole business that it is not just the $15 an hour basement, everyone is going to be bumped up. That comes off the bottom line of a small business. It makes it so there are less jobs. Not more jobs, less jobs.    I appreciate the time and I appreciate the panel here today. Thank you, Mr. Chair.    Chairman CHABOT. Thank you very much. The gentleman's time is expired. The chair would just note that like California, the city of Cincinnati--and I happen to be a resident of the city of Cincinnati--they are also now considering enacting a $15 minimum wage, and I can assure you that they did not consult with the chairman of the House Small Business Committee before considering such action.    The gentleman from Nevada, Mr. Hardy, who is the chairman of the Subcommittee on Investigations, Oversight, and Regulations is recognized for 5 minutes.    Mr. HARDY. Thank you, Mr. Chairman, for the opportunity throughout this meeting and bring out some of these issues that are out there. As a former small business owner myself, I might disagree with many on the impact of regulations; I have seen the impact of what regulations do to small businesses. We talk a lot about the small business, but we also have to understand that through the regulation process, small businesses also hurt probably more than anybody else when it impacts big business. I just heard at a hearing this morning about the impact of the steel industry, the regulations on the steel industry and how we cannot compete, or how we have governments backing up things, but the government side does not have anything to do with regulations. It has something to do with what our responsibility is here.    The reason I bring this up, through regulations like ``waters of the U.S.,'' the Clean Water Act, the sick leave rules, all these other little rules that get at it, too, we, as small businesses, feed off many of the big businesses. When it impacts big business, it devastates our market too, and they start to collapse or they start to decline. Things like ``waters of the U.S.'' in Nevada. Really? Clean waters of the U.S. and Clean Water Act in Nevada? You literally could go for hundreds of miles and never find a stream. But because of mining impacts and the costs, it also costs maybe steel products, precious or other metals that help make good quality steel. When that impacts there, it drives costs up and drives the business out of business, so to speak, so we have problems on that end, too. We cannot ever leave out the big business impact. I would like to thank Mr. Knight for signing onto the letter with me for the overtime rule.    Ms. Harned, I would like you to address maybe a little further on what impact this overtime rule has had on small business. You brought it up a little bit but can you go into manufacturing costs of jobs or maybe what other issues might be harmed by this overtime rule?    Ms. HARNED. Right. I think the issue is the jobs. I think that Mr. Mayfield's story really demonstrates that. The other thing that I think is so important to focus on with regard to this rule, we live in a very expensive area, and $50,000 is not what it is in rural Texas. That is one of our biggest complaints with this rule, and we really were asking that the Department look at the fact that you have different markets all over the country. One size definitely does not fit all when it comes to this, and you are, as Mr. Mayfield suggests, punishing people that you are trying to build as managers; making them think as an hourly employee as opposed to doing what is good for the business. I really think, for the small business owners we represent, this rule is very much one of a job loss leader. Lack of sales may definitely come from that, too, because as people lose jobs, they have less money to spend. Our most recent report that was just issued on Tuesday shows now that lack of sales is coming back up as a big factor as to why small businesses are not expanding and doing poorly in this economy still today.    Mr. HARDY. You talk about the impact of the overtime rule, but we have many other impacts--the sick leave rule--that are coming forward. This joint employer rule, which is going to cause a major impact on industries because of the explanation that needs to be understood of where it is really going to stay with the smaller businesses that actually help build up that franchise, so to speak.    A question I can ask of Mr. Palmieri, last year there was 82,035 pages of regulations drafted from January 1 to December 30. Who has to read those pages? How many pages a day is that, by the way? How many employees do we have to have to take care of just to make sure we are not violating regulations?    Mr. PALMIERI. Absolutely. For some of our smallest businesses, it is absolutely impossible. They have to rely on outside expertise, they will pay consultants. They will join trade associations. They will join other groups to help figure out what is coming at them, both what to expect in the future and what is hitting them right now. But you point to a critical piece that is so often missed and that no agency does a good job of, which is to say, in what environment am I adding this new regulatory cost? What is the cumulative burden of the regulations from this agency and all others that have been imposed recently on this industry, this sector, or in the past, that they are still following? That they are still investing in capital equipment to comply with? That cumulative burden, even though this administration has asked agencies to look at it, is never analyzed, is never reviewed, and often is what makes a relatively small rule still very costly at the margin and critical for whether a business remains a profitable concern or not.    Chairman CHABOT. Thank you very much. Thank you. The gentleman's time has expired.    The gentleman from Mississippi, Mr. Kelly, is recognized for 5 minutes.    Mr. KELLY. Mr. Chairman, thank you for holding this hearing, and I thank all of you witnesses for being here. I thank you for your testimony today.    It is frustrating to me. I am new here, and so I still have friends back home that do not know anything about the legislative process, and quite frankly do not want to know anything about the legislative process, and I may join them one day. It is frustrating when you have agency after agency after agency that in the name of trying to help people are continuing to hurt not only the small businesses but also the end user, the customer, the consumer whose prices continue to go up. Whether we are talking about the CFPB or EPA or OSHA or NLRB, they continue to pile on regulations, quite frankly, even to the point that recently there are lobbying groups to support their rules on the front end, which is illegal in some cases. Even when you tell them it is illegal, and I have actually had this in the Ag hearing where they say, ``well, I think they misinterpreted the law''. I think the courts are wrong. The courts did not really mean that. They are wrong in the ruling that they have. We are going to ignore that. We have agencies that are out of control. We need good regulation in government. I think everyone in the panel would agree with that. We need reasonable regulation, and we need regulation that prevents cheaters, but we do not need burdens on our backs. Fifty thousand dollars a year is a lot of money in Mississippi, where I live. We cannot afford $15 an hour, especially when it is a graduated scale where you are punishing your hard workers, people like my wife who works, who does not make New York wages, it is difficult. So how do we stop them? Because they put up comment periods. They pay groups to go and comment what they want to say what a great rule it is, either legally or illegally. Groups do that. The number of comments does not equal the number of people it affects, and quite frankly, most small businesses cannot read it, do not have the time to read it, or are not articulate enough to organize to put those right messages on there. How do we stop it in Congress? How do we stop the ridiculous regulations that keep coming? I will just start with you, Ms. Harned, and see, what can we do?    Ms. HARNED. That is the million-dollar question. I think one thing that can happen that would be helpful is, as we have seen with these big comprehensive bills, whether it is Obamacare or Dodd-Frank or whatever, there is way too much left unsaid in the statutory language, which means that the agencies get a clear path to fill in the blanks, if you will. Then you have years of jurisprudence in the courts that only give them the green light for that, saying we are going to defer to you, we are not going to second guess you. We have created, as an old professor Jonathan Turley said, the fourth branch of government now with these agencies. I really feel like starting in Congress, write clear, small, very direct legislation, and then aggressive oversight is also critical.    Mr. KELLY. That is one of the things that is really frustrating to me, if I vote wrong and I do things that are stupid, my folks will send me home. I am accountable. If I make too many of the wrong votes or do things the wrong way, I am accountable. I go home. The President is accountable to the people. He is elected by the people, and if he makes the wrong decisions, whoever our next president is, he/she, it does not matter. If they make enough of the wrong decisions, the people will send them home. The same with our Senate. The problem is, these regulatory agencies, they do not even go to jail for breaking the law. There is no accountability whatsoever. They are not elected, they do not care what the people think, and they do not care what the voters think because they do not answer to the voters. They do not answer to the President. They do not answer to the Congress. They do not answer to the courts. They think that they are untouchable, and we have to figure out a way. I do not think any rule or regulation, if it was up to me, none of them, unless they were approved by Congress, would ever be acted into regulation. I do not care the cost because I think we owe a duty, and I think we have to get away from regulators running this country. The fourth branch of government, which I would argue right now until we do something, is the most powerful branch of government in spite of that is not the best thing for this nation. I think there are some really good people who work there. I do not think they are all bad people, and I think people have really good motives. But at the end of the day, I think we have to rule on the amount of excessive regulation. I yield back.    Chairman CHABOT. Thank you. The gentleman yields back.    The chair was considering going into a second round and asking another question, but I cannot improve on what the gentleman from Mississippi just said. So I am going to end it there.    We want to thank all the witnesses for being here today. Today's hearing highlighted how regulations that are often created without assessing the real world consequences for small businesses can result in unnecessary and excessive regulatory burdens, especially on small businesses. At the core of this problem, I think to some degree, is the agency's failure to comply with the Regulatory Flexibility Act. This Committee will continue to closely monitor agencies' regulatory activities and work on solutions that will ensure full compliance with the law.    I would ask unanimous consent that members have 5 legislative days to submit statements and supporting materials for the record. If there is no further business to come before the Committee, we are adjourned. Thank you very much.</t>
+    <t xml:space="preserve">    Chairman CHABOT. Good morning. I call this hearing to order. We are here today to talk about small businesses and the hidden federal regulatory burden that is weighing them down.    Small businesses are a huge contributor to the American economy. They employ nearly 57 million employees, create 7 out of every 10 new jobs, and produce nearly half of private sector GDP. In my home state of Ohio, 2.1 million Americans go to work every day at a small business. In fact, almost 90 percent of U.S. employers have 20 employees or less.    The federal government should be doing everything it can to help these small but mighty job creators flourish. Unfortunately, federal regulators are doing the opposite oftentimes by layering on new red tape and hiding the real burden from the American public.    Too often, agencies do a poor job of assessing the impact of regulations on small businesses. However, we know small businesses shoulder a disproportionate share of the federal regulatory burden. A 2014 study found that small businesses with 50 employees or less spend 17 percent more to comply with federal regulations and that regulations cost the economy over $2 trillion annually.    The regulatory burden falls most heavily on small firms because they have fewer resources and do not have in-house lawyers and regulatory compliance staff to help them navigate complicated federal rules. That is why it is critical that federal agencies analyze the small business impacts of new regulations and reduce unnecessary and excessive burdens. Agencies have been required to do this for over 35 years but still avoid these requirements in many instances.    We need to lighten the massive regulatory burden and make it easier for small businesses to start, grow, thrive, and create new jobs. So we need to understand the problems that small businesses are facing and develop bold solutions.    One legislative solution that the Committee put forward last year is H.R. 527, the Small Business Regulatory Flexibility Improvements Act, which passed the House with a bipartisan vote. The legislative window is closing, so I hope the Senate will act quickly to move this important bill.    I want to thank the witnesses for being here today, and I would now like to recognize our ranking member for her opening statement.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Reducing the cost of regulations is an important issue for small businesses. Complicated rules and duplicative requirements can create burdens for small firms across a wide range of industries. Unchecked regulations can over time become out of date requiring companies to devote significant resources to compliance. This hurts their bottom line and their ability to hire new employees. For these very reasons, Congress enacted the Regulatory Flexibility Act in 1980. At its core, the act requires agencies to assess the impact of their regulations on small businesses. A panel process was also added in 1996 requiring the EPA and OSHA to hear directly from small businesses on the most potentially burdensome rules. CFPB was brought into the panel process in 2010 under the Dodd-Frank Act. Overall, the result of the Regulatory Flexibility Act has been impressive.    Since 1998, through its enforcement of the Act, the SBA's Office of Advocacy has reduced the burden of Federal rules on small businesses by almost $130 billion. The Regulatory Flexibility Act is making a real difference for entrepreneurs across the country. President Obama has built on this and taken further actions in this area. He has issued several broad-based executive orders on rulemaking. Most importantly, he instructed agencies to conduct retrospective review of their regulations. These reviews have resulted in near-term cost savings to the U.S. economy of $10 billion. He also has required agencies to estimate the costs and benefits of regulations, consider less burdensome alternatives, and incorporate those that are affected by regulations into the rulemaking process. Taken together, these efforts are helping to reign in regulatory costs, while ensuring that agencies can carry out their mission.    While it is important to reduce the unnecessary burden on small businesses, we have to be careful to not impede the economic benefits of regulation. Clean water and air regulations help ensure a healthy workforce and are critical to many companies, especially those engaged in travel and tourism. Safety rules keep our workers healthy and enhance productivity by reducing workplace accidents. Financial regulation has prevented individuals from being taken advantage of.    Earlier this month, we saw the CFPB close down a student loan debt management company that fleeced 3.6 million from 4,300 consumers through a 3-year scam, so we have to be careful to not use instances of regulatory burden to undo helpful rules. Reduce compliance costs? Yes. That is something we can all agree to, but neutralize critical environmental health and safety rules, no, that is too far. Too often this debate is framed in a strictly either/or context, meaning we must choose between harming small businesses and preserving important protections that keep workers and consumers safe. Perhaps a better option is to focus on regulating in a thoughtful manner that is sensitive to the burden imposed on small companies while maintaining their underlying policies. The regulatory review process that Congress and the president have laid out is meant to achieve that goal, taking small firms' needs into account.    Today, I hope to learn more about how mechanisms like the Regulatory Flexibility Act are minimizing their regulatory impact on small companies. Likewise, there might be other ways that federal agencies can lessen small business compliance costs, whether it is through compliance assistance, legal advice, or other steps, it is my hope that this sort of proactive thinking can also be part of the discussion. All of us share the goals of protecting workers, preserving our environment, and keeping consumers safe. Likewise, none of us want these protections to hurt small companies or impede job growth. It is my hope that by working together, we can achieve both goals.    With that, I thank the witnesses for being here today, and I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. The gentlelady yields back.    If Committee members have an opening statement prepared, we ask that they submit them for the record.    I will now take just a moment to explain our timing and lighting system. It is pretty simple. Each of you gets 5 minutes. We will then get 5 minutes to question you back and forth from Republican and Democratic side. The lights, the green light will be on for 4 minutes, the yellow light will come on to let you know you have got a minute to wrap up, and then the red light comes on, and we would appreciate it if you would conclude by that time if at all possible. We will give you a little leeway but not a whole lot.    Now I would like to introduce our witness panel. I will introduce our first witness, and then I will turn it over to the ranking member to introduce our second witness, and I will introduce the others.    Our first witness is Karen Harned. Ms. Harned is the Executive Director of the NFIB, National Federation of Independent Business, Small Business Legal Center. The NFIB represents over 325,000 small and independent businesses. The Legal Center advocates for small business in the nation's courts and serves as a resource for small business owners across the country. Prior to joining the Legal Center, Ms. Harned worked at a law firm specializing in food and drug law.    I would now like to yield to the Ranking Member for our second introduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    It is my pleasure to introduce Mr. Frank Knapp, Jr., the Founder, President, and CEO of the South Carolina Small Business Chamber of Commerce, which has more than 5,000 members and has a goal of making South Carolina more small business friendly. He also serves as Vice Chair of the American Sustainable Business Council, which advocates for the growing universe of sustainable and socially responsible businesses and social enterprises. Mr. Knapp holds a master's degree in social psychology from the University of South Carolina and a bachelor's degree in psychology from Indiana University of Pennsylvania. Welcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Our third witness is Rosario Palmieri. Mr. Palmieri is the Vice President of Labor, Legal, and Regulatory Policy at the National Association of Manufacturers, or NAM. NAM represents manufacturers across the United States, the majority which are small businesses. Before joining NAM, Mr. Palmieri served as a staffer on several House Committees, including the Committee on Small Business, the most important Committee in Congress.    Our final witness is Tom Sullivan, an attorney with the law firm of Nelson Mullins. He leads the Coalition for Responsible Business Finance, a group of businesses that advocate for the value of nontraditional lending opportunities for small businesses. Previously, Mr. Sullivan served as Chief Counsel for Advocacy at the U.S. Small Business Administration from 2002 to 2008. We thank you all for being here today, and Ms. Harned, we will begin with you. You are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>HARNED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. Thank you, Chairman Chabot and Ranking Member Velazquez, for inviting me here today. On behalf of the National Federation of Independent Business, I appreciate this opportunity to testify on the hidden tax that regulation represents on small business. According to our latest NFIB Small Business Economic Trends Survey, 21 percent of small business owners cited government regulations and red tape as their single-most important problem. Despite the devastating impact of regulation on small businesses, federal agencies continue to turn out approximately 10 new regulations a day with a stunning 3,297 federal regulations in the pipeline.    When it comes to regulations, small businesses bear a disproportionate amount of the regulatory burden as compared to larger businesses. This is not surprising since it is the small business owner, not one of a team of compliance officers, who is charged with understanding new regulations, filling out the required paperwork, and ensuring the business is in compliance with new federal mandates. The small business owner is the compliance officer for her business, and every hour she spends understanding and complying with a federal regulation is 1 less hour she has to service customers and plan for future growth.    Today, I want to focus on a category of regulations that does not seem to get as much attention in Washington, and that is labor regulations. Small businesses can be found in virtually all industries. Whether you are a manufacturer, a baker, or a dry cleaner, the one thing you are going to have in common is employees. For the small business NFIB represents, who on average have 10 employees or less, these regulations can be some of the most challenging. The small metal fabricator, for example, goes into business knowing how to finish metal products. He has a good sense of where he goes to get the supplies he needs and what kind of skills he is going to be needing in his workforce. But what he likely is not going to know is the best practices regarding wage and overtime calculation, compliance with various state and federal discrimination laws, and hiring.    On July 6, 2015, the Department of Labor published a proposed rule that would more than double the minimum salary a worker must receive to $970 per week, or $50,440 annually, in order to be considered exempt from overtime requirements. The nearly $750 million DOL's initial regulatory flexibility analysis estimates small businesses would face in new costs during the rule's first rule underestimates the true compliance costs for a small business. For example, DOL estimates it is going to take 1 hour for businesses to become familiar with the rule, but this assumption disregards a basic reality of regulatory compliance. It is the small business owner that will be wading through the rule's regulatory text, not compliance specialists like those working for large corporations. This rule will not require just a simple look at a salaried employee's weekly wages. If an employee is currently salaried and makes greater than the current threshold of $455 per week but less than the proposed $970 per week, the small business owner would spend a considerable amount of time calculating various scenarios.    NFIB member Robert Mayfield owns five Dairy Queens in and around Austin, Texas, and he believes this rule would be bad news for employers and employees. Currently, Mr. Mayfield employs exempt managers at all five of his locations, and these individuals earn, on average, about $30,000 per year, and work between 40 to 50 hours per week. The managers also receive bonuses, more flexible work arrangements including paid vacations and sick time, training opportunities, and promotions that Mayfield's hourly employees do not get. Under DOL's proposal, Mayfield predicted that he will need to move the managers back to hourly positions as there is simply no way he can afford to pay over 10 managers $50,000 each. Mayfield noted that rather than giving managers overtime, he is likely to hire a few more part-time employees. He says, ``I feel most sorry for the many enthusiastic people who work for me, who have worked hard to advance into their dream of a salaried management position.'' He continues, ``How can you be a manager and punch a time clock? The idea is to do a job, not to keep track of your hours. This is the antithesis of building a management mentality or in training someone to be a manager. It would also disrupt the workplace and lead to fewer management opportunities. It would hurt, not help, the people we claim that we want to help.''    As I detail in my written statement, DOL's overtime rule is just one of many labor regulations, like OSHA's silica rule and the persuader rule out of Department of Labor, that are imposing a hidden tax on small business, and these hidden taxes are in addition to those found in significant environmental regulations, like the ``waters of the U.S.'' rule and EPA's Power Plan rule.    Small businesses are the engine of our economy. Unfortunately, they also bear a disproportionate weight of government regulation. Complying with these and other regulations prevents small business owners from creating and growing new jobs.    Thank you so much for holding this important hearing on regulations as a hidden tax on small business, and we look forward to working with you on these important issues going forward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Mr. Knapp, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>KNAPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNAPP. Thank you, and I apologize in advance. I have a cold.    Thank you, Chairman Chabot, Ranking Member Velazquez, and members of the Committee. My name is Frank Knapp. I am the president and CEO of the South Carolina Small Business Chamber of Commerce. I am also the board co-chair of the American Sustainable Business Council, which through its network represents about 200,000 businesses. The American Sustainable Business Council advocates for policy change at the federal level and at the state level that supports a more sustainable economy.    Today's hearing topic is important for small business and the vitality of our economy. Good regulations tend to stimulate innovative and entrepreneurship in addition to limiting or preventing destructive forms of economic activity. Bad regulations, whether because they are not designed properly or simply not needed, will be a burden on small businesses, and thus, harm our economy. Everyone here would prefer the former and not the latter.    One example of what is working is the Regulatory Flexibility Act. In 2004, my South Carolina organization worked with our South Carolina Chamber and the NFIB to pass our Small Business Regulatory Flexibility Act modeled after the Federal law. Several years later, the then-chairman of the South Carolina Regulatory Review Committee told me that over the previous 7 years, his Committee had reviewed about 300 proposed regulations and identified only 10 that raised their concern. His Committee worked with the State agencies promulgating these new regulations and satisfactorily resolved the issues. The Regulatory Flexibility Act has created an effective process to protect small businesses even if the process itself needs some attention from time to time.    While some inside the Beltway claim that regulations are holding back our economic growth, the American Sustainable Business Council has a different view. Along with the other small business organizations, we released a poll of small business owners in February of 2012, which found that small businesses do not see regulations as a major concern. Our polling confirmed that small business owners value regulations if they are well constructed and fairly enforced. Eighty-six percent believe some regulation is necessary for a modern economy, and 93 percent of respondents believe their business can live with some regulation if it is fair and manageable. Seventy-eight percent of small employers agree regulations are important in protecting small businesses from unfair competition and to level the playing field with big business. Seventy-nine percent of small business owners support having clean air and water in their community in order to keep the families, employees, and customers healthy. Sixty-one percent support standards that move our country towards energy efficiency and clean energy.    Recently, Republican pollster Frank Luntz surveyed CEOs and found similar results as the American Sustainable Business Council polled. Regulations were identified as the seventh concern behind more pressing issues like creating economic opportunity, keeping taxes affordable, raising the minimum wage, and reducing income inequality. So if small businesses are not self-identifying regulations as their top impediment to growth, and businesses in general are not citing regulations as a significant problem, who are pushing the anti-regulation bills really representing?    The answer is clear. Most of the complaints we hear in Washington are from only two industries. Those that are impacted by the Wall Street reform, Dodd-Frank, and new Environmental Protection Agency regulations. K Street lobbyists regaled Congress and the public about the dire economic consequences to small businesses of regulations that will prevent another Great Recession or protect the health and safety of our citizens or restrain the future wrath of uncontrolled climate change. In reality, the financial giants who drove our economy off a cliff and the powerful fossil fuel industry are driving the anti-regulation train using the name of small business to garner sympathetic ears.    In conclusion, the regulation promulgating process can produce good results and good rules while protecting small businesses from unnecessary burdens if we provide the resources for agencies to expeditiously carry out the requirements. Congress has already put in place those requirements, but the federal government's responsibility to impact small businesses should not stop there. Some small businesses will find compliance with federal regulations difficult. The answer is not to throw the baby out with the bathwater and invalidate existing rules. Instead, we believe the solution lies in expanding the capacity of the federal government to provide regulatory compliance assistance to small businesses.    Thank you for the opportunity to speak before you today, and I welcome any questions the Committee might have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Mr. Palmieri, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>PALMIERI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. PALMIERI. Thank you, Chairman Chabot, Ranking Member Velazquez, and members of the Committee, it is an honor to testify before you today about the impact of regulation on small business.    The U.S. is still the world's largest manufacturing economy, producing more than $2 trillion in value each year and directly employing nearly 12 million Americans and indirectly supporting 18 million jobs. Manufacturers provide good high-paying jobs. Unfortunately, manufacturers lost 2.3 million jobs during the most recent recession, and since then we have generated over 802,000 net new jobs. But to regain manufacturing momentum and to return to net manufacturing job gains, we need improved economic conditions and improved government policies.    The business community is often misunderstood about their views on regulation. Manufacturers believe regulation is critical to the protection of workers' safety, public health, and our environment. We believe some critical objectives of government can only be achieved through regulation, but that does not mean that our regulatory system is not in need of considerable improvement and reform. Regulations are often unnecessarily complex, duplicative, and ineffectively achieve their benefits. Excessive regulatory changes and uncertainty impose high costs, especially on small businesses. Small businesses, as we know, bear a disproportionate burden of regulation because of the often high fixed cost of compliance not subject to economies of scale. That is why the work of this Committee and the implementation of the Regulatory Flexibility Act are so important.    Unfortunately, agencies are not anxious to analyze the impact of their regulations on small business. A recent study showed that between 1996 and 2012, fewer than 8 percent of rules were subject to the RFA's analytical requirements. Although we had hoped that was because agencies made excellent decisions about which rules had those impacts, let me share a quick list of some of the most expensive EPA rules. EPA's greenhouse gas limits on power plants, National Ambient Air Quality Standards for Ozone, Boiler MACT, the NESHAP 6X and the ``Waters of the U.S.'' rule. EPA certified that each of them would not have a significant impact on a substantial number of small entities. I think most of us would find that hard to believe.    The reason it matters that these rules and thousands of others were not subject to the law is that the real businesses and real jobs are lost when small businesses are not considered. Last year, SBA's Office of Advocacy saved small businesses $1.6 billion in first-year regulatory cost savings, and as Ranking Member Velazquez noted, saved $130 billion since 1998. Imagine what could have been accomplished if fewer rules could evade these analytic requirements, and that is why a reform of the RFA is so urgent and why Chairman Chabot and this Committee's leadership in proposing H.R. 527 would help address these concerns.    Additionally, there are a number of powerful and potentially bipartisan regulatory reforms to choose from. One would be for Congress to confirm the authority of OMB's Office of Information and Regulatory Affairs to review the regulations issued by independent regulatory agencies and ensure their adherence to strong analytic requirements. Congress plays an important role within the regulatory process but does not have a group of analysts who develop their own cost estimates of proposed or final rules. Just like Congress has an independent CBO to check OMB budget assumptions, Congress should have a parallel office to OIRA and the agencies to review regulations and their impacts.    While we have appreciated the Administration's good efforts on retrospective review of regulations, they have not resulted in significant cost savings for our members or a change in culture in the federal agencies. To truly build a culture of continuous improvement and thoughtful retrospective review of regulations, different incentives are needed. To incentivize high quality reviews, existing regulations should automatically sunset unless they are affirmatively shown to have a strong continued justification. While the overwhelming majority of those regulations would be continued, a cleanup of outdated or unnecessary regulatory accumulation would occur. The complexity of rulemaking and its reliance on highly technical scientific information has only increased since the passage of the Administrative Procedure Act. The APA is 70 years old, and it should be reformed by incorporating modern principles for sound rulemaking best embodied by President Clinton's executive order into the DNA of every rule.    In my written statement, I have included additional regulatory reform proposals for your consideration. I have outlined a number of challenging rules for small manufacturers.    I appreciate the opportunity to provide testimony today on behalf of manufacturers across the country. I applaud you for holding today's hearing, and I am happy to respond to any questions. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Mr. Sullivan, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>SULLIVAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SULLIVAN. Thank you, Mr. Chairman, Congresswoman Velazquez, members of the Committee. I am pleased to present my views on how small businesses are impacted by federal regulation. The bulk of my testimony will actually cover how small businesses can impact federal rules, or at least how the Regulatory Flexibility Act is designed to ensure that small business has a voice in the process.    My testimony this morning is drawn from my two decades of work on small business regulatory issues and my overall desire to bolster the voice of small business in that process. I was confirmed to head the Office of Advocacy in 2002, and as you know, that office is responsible for overseeing the Regulatory Flexibility Act. I served until October 2008, and during my tenure, the Office of Advocacy issued approximately 300 public comment letters to 60 agencies, averaging about 38 per year. I have remained deeply interested in how small businesses are impacted by regulation and how small business involvement can benefit regulatory policy.    I would like to share just briefly some good news and bad news. The good news is that federal agencies work with SBA's Office of Advocacy, and EPA, and OSHA, and the CFPB, and they utilize SBREFA panels to explore how each agency can sensitize its regulatory approach to small business. The bad news is that there are still times when agency deadlines, whether they are judicial, statutory, or political, push folks at the agencies to approach the Reg Flex Act as a set of procedural hurdles. That concern is of utmost concern during this stage of the Administration when the clock is ticking down on when federal regulations will be finalized under President Obama. The end of administration phenomenon to cement its legacy through regulation is not unique to this presidency. There is plenty of data, research, and testimony on the subject of midnight regulations. One recent publication estimates 4,000 rules making their way through this Administration at a cost of more than $100 million.    Unfortunately, I have more bad news. The most obvious example of an agency purposely, in my opinion, of an agency purposely avoiding the Regulatory Flexibility Act was EPA's recent promulgation of the ``waters of the U.S.'' rule. The EPA and the Corps certified that the proposed rule would not have a significant economic impact on a substantial number of small businesses.    More good news. A set of policies that is good news is that states continue to experiment with ways to make their regulatory climate more hospitable to small business. Frank Knapp already mentioned South Carolina, and in my home state, Governor Charlie Baker led an initiative to review all of the Commonwealth's rules in a ``spring cleaning'' exercise last year designed to help small business. This is akin to my work as chief counsel when the Office of Advocacy worked with South Carolina, Massachusetts, and several other states to encourage state adoption of the Regulatory Flexibility Act at a state level, and it is good news that that effort continues.    Unfortunately, the bad news is that States and their experiments also stumble into situations where they want to help but unintentionally harm small businesses.    The coalition that I run, the Coalition of Responsible Business Finance, is monitoring a situation in Illinois and a situation in New York, up in Albany, where those legislators are considering small business lending provisions. It seems as though the goals of transparency and disclosure are good, but the other prescriptive underwriting standards and excessive regulatory mandates' civil and criminal penalties, unfortunately, could do more harm than good. I am hopeful that in Springfield, Albany, and other state capitals, as I am optimistic here in Washington, D.C., that legislators and regulators can, and should, incorporate the views of small business before moving forward. That is the same principle of the Regulatory Flexibility Act.    I am troubled by what happened with EPA's ``waters of the U.S.'' rule and how its avoidance of the Regulatory Flexibility Act could not be challenged until the rulemaking was finalized, a year after they certified that it would not hurt small business. That certification part of the Reg Flex Act is truly the ``fork in the road'' when it comes to whether EPA should listen to small business and tailor its regulatory approach to accommodate small firms. H.R. 527, passed by this Committee, solves that problem, and I am hopeful that the Senate will look towards a similiar solution.    I commend this Committee's attention to the plight of small businesses that are trying to keep up with the flood of mandates emanating from our nation's capital. Agencies need to continually hear from you, from the Office of Advocacy, from small business stakeholders like my fellow panelists, and from small business owners themselves in order to affect positive regulatory change. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. We appreciate the testimony of all the witnesses. Now the members on both sides will have an opportunity to ask a few questions, and I will begin with myself.    Ms. Harned, let me start with you, if I can. Mr. Palmieri and Mr. Sullivan and you all believe and testified, and we obviously read your statements, that the Regulatory Flexibility Act needs to be strengthened and that loopholes need to be closed. I agree, and many of the members of the Committee do, and I have introduced legislation to do so. This Committee has held numerous hearings where we have heard about agencies bypassing the Regulatory Flexibility Act requirements or merely treating it as a ``check the box'' exercise. When agencies ignore the RFA's procedural requirements, the only option left is litigation. Are RFA compliance disputes being resolved favorably for small businesses in the courts? And if not, why not, in your opinion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. Actually, in many instances they are being resolved favorably because, for example, the certification questions that even the ``waters of the U.S.'' rule presents. You either complied with the law or you did not. Right? We have won in past cases on those issues. The problem is they are Pyrrhic victories, because that win is going to take place years after the rule has taken effect. That is why the legislation that you supported, that the House has passed and, that the Senate needs to pass, is so critical, because it will allow for judicial review in that critical process where the agency has decided not to certify a rule or has failed to properly comply with doing an appropriate RFA analysis as the rule requires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Mr. Palmieri, let me turn to you next. Notice and comment rulemaking is a critical process and ensures affected parties and other members of the public have input on regulations as they are developed. In the notice and comment, is it working well, or are there problems, such as short comment periods for complex rules? Do those types of things prevent small businesses from participating in the rulemaking process? What are your thoughts in that area?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. PALMIERI. Absolutely. When a rulemaking extends to hundreds of pages of extraordinarily complex and dense material that cannot be read by the average person, and then an agency, as in the case of the Department of Labor, gives a 30-day comment period, as they just did recently on a rule for federal contractors, it absolutely undermines the entire purpose of notice and comment. When asked for an extension of the comment period so that businesses could absorb the true impact of the rule and weigh in in a thoughtful way, they extended it for an additional 10 days. They could have just as easily refused if they had chosen to. There is really no excuse in the rulemaking process for agencies not to give sufficient time, especially if they have not done an advanced notice of proposed rulemaking or given an opportunity for early stakeholder input, like President Obama's executive order recommends to agencies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    Mr. Sullivan, you mentioned the ``waters of the United States'' rule as an example of agencies deliberately avoiding compliance with the RFA. By certifying the rule, EPA avoided conducting a small business advocacy review panel and doing an analysis of the rule's impacts. What can be done to address this kind of egregious behavior? Is the answer legislation or litigation or presidential leadership or some combination of those things?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SULLIVAN. I think it is some combination of those things, honestly, Mr. Chairman. I think that H.R. 527 really fixes this problem, and that is the certification problem. Really what we are getting at is process versus result. Small businesses just do not want to be shut out of the process. They want clean water, they want clean air, but they do not want to be shut out of the process. At that critical decision point, when EPA or any other agency says it does or does not affect small business, I think there needs to be an independent assessment of that decision that happens before 7, 8, 12 years later when it makes it to the Supreme Court, because small businesses need regulatory certainty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Let me squeeze in one quick question here, Mr. Palmieri. Ms. Harned had mentioned the silica rule in the $5.5 billion annual compliance cost as one of the top issues. I know you had it in your written testimony as well. Would you discuss that briefly, the compliance challenges that small manufacturers are facing when it comes to the silica rule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. PALMIERI. Sure. Manufacturers care deeply about the health of their employees and they are constantly, with or without the rules, able to address them. The real challenge of the silica rule is that OSHA will not allow businesses to prioritize personal protective equipment above costly engineering controls. Even in situations like in a foundry where it may not be feasible to implement the kinds of engineering controls OSHA has suggested, they are looking at extraordinarily costly measures when there are more efficient measures that will be just as protective. That is the real tragedy of this rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. My time is expired.    I would like to now recognize the gentlelady from North Carolina, Ms. Adams, who is the Ranking Member of the Investigations, Oversight, and Regulations Subcommittee, for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412607</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, Mr. Chair, and thank you, Ranking Member Velazquez, for holding these hearings on tax implications for small businesses. It is of critical concern.    Ms. Harned, you note that regulations are extremely onerous for businesses. How burdensome are regulations here in the U.S. compared to regulations in other countries, particularly those with similar economic structures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. Honestly, I would probably not be your person to answer that question. Our members really do primarily operate in the United States. They do not do much internationally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Would other members of the panel like to respond?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. PALMIERI. Sure, Ms. Adams. Part of the challenge for U.S. businesses is that often our compliance regimes are very different than in say some of our European allies and others where they may set a rulemaking standard but it is a goal as opposed to a floor or a threshold. Oftentimes you may even find similar regulatory standards internationally, and yet, their enforcement regimes have a different philosophy, and as a result, are far less costly to implement or they have a more cooperative relationship between businesses and regulators. What we certainly say, although they are not fantastic international quantitative comparisons, is that the U.S., when are business leaders operating in multiple jurisdictions surveyed, the U.S. is one of the most costly regulatory countries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you, sir.    Ms. Harned, many businesses are worried about duplicative regulations at both the federal and state levels. Can you discuss the extent to which firms face duplicative regulations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. Thank you for that question, because that is a very important issue that I have seen in my 14 years at NFIB. A state will tell somebody to do one thing. You will see it with building codes, all sorts of things. The federal government will come in, or an inspector will come in and say, oh, no, you need to do it that way. Really what I think all regulators need to do, and we need to come up with a system to meet the small business owner where they are, they need to know once I have gone through this one inspection, whether it is a state inspection, a federal inspection, even an inspection by a workers' comp insurer, they have hit the marks that they need to hit, that they are good, because they want to meet the requirements that are asked of them. But, if the requirements are different for different people that are coming in at different times, it gets very confusing and challenging, and quite frankly, frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Thank you.    I have a concern about minority-owned businesses, and I wanted to ask if you had any thoughts on how red tape impacts minority-owned firms or disadvantaged businesses, and how the agencies can work with these firms specifically to provide technical assistance around compliance issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. I actually think all small business owners, regardless whether minority-owned or not, are in it together on this issue, if I may, because I think that is the biggest issue. None of them are able to really find out what is required. I talked to colleagues, friends, members in different industries, and they really are relying on the trade association newsletter to alert them to things. Really, the outreach that can come to all communities, minority included, to the small businesses, there cannot be enough communication, enough channels of communication, in my opinion, because I still think so much of this comes as a shock. ``Oh, wait. We need to be doing that? I had no idea.'' I think that is particularly problematic if you are in a more insulated community or not as familiar with business, if, you are just new to business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. So what is the solution then?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. I have suggested to agencies before, partnering with small trades, getting the information, working with them to disseminate the information, get the information out. The same can be done with the minority communities. Bringing those organizations in to help them find their people, meet them, let them know what the rules are, and then also help them with compliance. Compliance assistance is key for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. ADAMS. Great. Thank you very much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Chair, I yield back.    Chairman CHABOT. Thank you. The gentlelady yields back.    The gentleman from Missouri, Mr. Luetkemeyer, who is the Vice Chairman of this Committee is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412292</t>
+  </si>
+  <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Thank you, Mr. Chairman, and welcome to all the panelists today.    Ms. Harned, I serve on the Financial Services Committee as well and do a lot of work with regards to financial services issues, Dodd-Frank regulations, CFPB and, overreach. In fact, I am the author of the bill to stop Operation Chokepoint which affects lots and lots of small businesses. It is not based on whether they are doing something illegal, but based on the political bent and/or value system of the agencies, DOJ and FDIC in particular, with regards to certain individual industries. What is your experience with your members with regards to Operation Chokepoint, and have you seen a decline since FDIC has changed their policy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. We definitely are hearing more from members on this issue, and this was actually one of the regulatory, rules that has given us great concern. My Legal Center issued an underground regulation report last fall that highlighted the Operation Chokepoint and other mandates that have been coming out of agencies that have not gone through the process, have not had the benefit of Reg Flex. As a result, it seems it is targeted in different areas of the country, and so we are just seeing these complaints, if you will, come up through different industries, different parts of the country. But all of this is something that could have been foreseen had the agency gone through the requirements of the regulatory process instead of doing this through some DOJ memo or however this program unfolded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. According to their own emails, their own internal emails, there is a concerted effort and a culture within these agencies that allows this to happen. So my question also, is have you seen as a result of this a decrease in the access to capital for your members?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. Honestly, I cannot speak to that. I feel like that would be something for our research team, but I could get back to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Sure.    Mr. Sullivan, as an advocate for small businesses, I am sure you deal with a lot of different regulatory agencies. Have you seen the willingness of the agencies to work with you with regards to--I know a number of the panelists have made comments about concerns when rules are issued, nobody really does their analysis. I think it was 8 percent of the rules have basically a cost-benefit analysis done on it or any sort of other analysis, which is 92 percent short of the goal of what it should be. When you go back and talk to the bureaucracies, do they recognize this? Are they willing to work with you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SULLIVAN. This is another one of the good news, bad news kind of responses to your question, Congressman. The good news is yes, there are pockets of really good practices. You are familiar, certainly, with your work on Financial Services with CFPB. The good news with CFPB is they let you and the small business stakeholders know right at the beginning of a rulemaking that they are going to do a SBREFA panel. I wish EPA would tell everybody that they were going to do it. The challenge then is that when CFPB does it, it does not seem as though they are really incorporating those views into how they approach the regulation. That is kind of a sole agency good news, bad news.    The Department of Transportation has a long history of working very well with SBA's Office of Advocacy. OSHA actually releases its interaction with small business in a report prior to----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. My question, sir, they are working with you but do they listen? Because I can tell you from talking with folks who have gone to some of these agencies, the fiduciary rule is a recent example. The QM rule with regards to qualified mortgages in CFPB, they ignored the discussion and the visits, because I had a group come to my office, and they said for the 42nd--we were the 42nd group to go in and talk to CFPB about the problems with QM and they said, well, we still know better than you what to do. It appears to me that even though you go talk to them, there is this attitude that we know better than you. Do you see that as prevalent, yes or no?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SULLIVAN. Congressman, yes, I do see that continue to be a prevalent attitude, unfortunately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. This is my concern because as I go home every week and I talk to my small business folks at home and I ask them, if you had one rule or regulation that you could get rid of, what would it be? They will tell me, you know what? It is not one particular one. It is this combination of all of them. It is the straw that finally breaks the camel's back. It is not knowing what is coming to us next that is a concern to us, and as a result, we are sitting on our cash. I have small businesses that are sitting on tons of cash. They want to expand, hire people, put a new line in their manufacturing plant, and cannot because they do not know what is coming down the pike next. It is this uncertainty that causes us to not have, I believe, the kind of economy we could have. When you look at creating fewer businesses in the last 7 years than we have lost, that is a problem, and I know it affects you, Ms. Harned.    I yield back the balance of my time. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. The gentleman's time is expired.    The Ranking Member, Ms. Velazquez, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Mr. Knapp, a lack of regulation or regulatory enforcement can often lead to catastrophic results. Environmental disasters, such as those in West Virginia recently, or the BP oil spill, have been devastating to local small businesses. What do you think happened there? Was it lack of regulations or lack of enforcement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNAPP. Thank you. In West Virginia, you are talking about the Elk River Spill. That was actually because, and I know this firsthand. As soon as that spill happened, I was in contact with the businesses there, which cost them, by the way, $19 million a day because they had to shut down their only source of clean drinking water. It was a matter that was not on the radar of anybody. You had this tank and nobody knew what was in it. Nobody was paying attention to it. It did not fall under any guidelines, any rules about how it had to be maintained. After that, the West Virginia legislature actually passed some very strict rules regarding aboveground storage and chemical storage. Unfortunately, the following year they turned around and gutted a lot of it. It is important. Regulations are important. They keep us safe. They protect our environment. They protect small businesses so that they do not have to be shut down when the drinking water is shut down, and they are important. I think everybody here recognizes that regulations do serve a purpose when they are done appropriately and are not too onerous.    I will go back to my statement. If we are talking about everybody thinks it is a good thing that agencies or the SBREFA process or everybody else has better outreach, we better fund it, because if we do not fund it, we are not going to be any better off than we are today. There is no sense in passing something and saying you will do this and then they go, ``well, okay, we do not have time so we are going to still try to not do it''. That is what I think goes on in these agencies with limited resources. It is funny. I was here nearly four years ago testifying before the same Committee, talking about the same thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Yeah, well, I guess budgets have consequences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNAPP. Yes, they do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Mr. Sullivan, I see in your testimony that you are leading the Coalition for Responsible Business Finance, a group of nontraditional small business lenders. As you know, I also serve on the Financial Services Committee, and I have pushed Director Cordray to issue regulations under Section 1071 of Dodd-Frank that will help us determine whether women-owned and minority-owned businesses are being discriminated against when they are trying to get loans. I will continue to push the director to do what we told him to do when we passed the Dodd-Frank. However, I am curious, from your standpoint, about how the CFPB can get this information without harming small lenders. Do you have an opinion on that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SULLIVAN. Thank you, Congresswoman, and thank you for being one of the first members of Congress to meet with the small businesses who are trying to provide capital to small businesses outside of the depository bank arena.    Grady Hedgespeth was just appointed as the head of Small Business at CFPB. He comes from a career at SBA. He is a good guy, and he approaches these issues very thoughtfully and carefully. CFPB has a good start and a good man to hire to do this, but he has a tough challenge ahead. The answer to your question is: CFPB can get it right if it truly meets, listens to, and reacts to small businesses in this space, and that is the principle of the Reg Flex Act. If they do it right, then they will come out with a good regulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. We will be watching for sure. Thank you.    Mr. Knapp, when agencies publish a proposed rule, the Reg Flex Act requires them to describe, and where feasible, estimate the number of small entities to which the proposed rule applies. Agencies often underestimate the number of small businesses impacted by proposed regulations, or simply say that the data is unavailable. Is it your experience that the burden is on small businesses to demonstrate that they will be affected? Mr. Sullivan, I would like to hear your comments on that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNAPP. I do not know how much outreach the EPA did regarding developing the ``waters of the U.S.'' I have been told it was pretty extensive even though they did not go through the SBREFA process. Here is the problem. The problem is, when we even have advocacy and they have the panels, they are usually done in places where most small businesses are not. Okay? They are done in Washington, and that means trade associations are representing them, and trade associations are not necessarily representing the rank and file out there. I do not remember any of them coming to South Carolina to hold anything.    I do not want to say it is the small businesses' responsibility to tell an agency that yes, we will be impacted. I think that if we are going to be doing this type of outreach, they need to have the resources to go out to the small businesses. Instead of putting the burden on small businesses to say they are going to be impacted, let's bring the two of them and let's educate them. Let's take them to where they are and then have those types of conversations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you.    Mr. Sullivan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SULLIVAN. Thank you, Congresswoman Velazquez.    First of all, I disagree vehemently with Mr. Knapp's statement that trade associations do not represent their small businesses. I think that is absolutely false, and I think my tenure as chief counsel, my interaction with the trade associations was tremendously helpful to gauge where small businesses come from. They are busy running their businesses, and if they can afford $100 extra to join a trade association, they want the trade association to interact with the agencies so that they can put the lights on and turn the lights off at the end of the day to run their business.    Now, as far as whether or not agencies underestimate or overestimate or who is responsible for the data, agencies have the resources to do the type of economic analysis. They know when they can get help from small businesses through their trade associations. I think the burden under the law is on the agencies to get it right, and I think that should continue to be where the emphasis is for producing analysis that you can benefit from, as well as small business owners in the process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentlelady's time has expired.    The chair would just note for the record that whereas private companies can screw up as they did in the chemical spill in West Virginia, that the government can screw up royally as it did out in Colorado some time ago in the Animas River when the EPA allowed huge amounts to go into the river there. That was the EPA.    I would now like to recognize the gentleman from California, Mr. Knight, for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412614</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNIGHT. Thank you, Mr. Chair.    My question is for Mr. Palmieri. Mr. Hardy and I recently wrote a letter to Secretary Perez expressing similar concerns to the testimonies today. As you may know, Mr. Hardy and I are from two very different states--me from California, Mr. Hardy from Nevada--and we approach things quite differently in both of those states. Do your members bring up issues on how these proposed rules would affect them on top of the state regulations in different states?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. PALMIERI. Absolutely. We often have deep sympathy with our members in certain states that have a very challenging regulatory philosophy. Some of our members live in states where the regulatory philosophy is to accomplish the objective but to also remain the most competitive state in the country to attract businesses and invest. Obviously, we also suffer the challenges of, as Ms. Harned mentioned, differing enforcement regimes where a business that might have a facility on two sides of a border, in the Midwest or otherwise, where one of their facilities is in compliance with State inspectors in the program and the other is not, despite doing the same thing and meeting federal standards. There are any number of challenges that they face, and obviously, for some, they have made decisions to leave certain states because of their regulatory regimes or decided not to invest that next dollar or that next job in states that are not as welcoming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNIGHT. Well put. Our job is to kind of get out of our way in California. I think Mr. Hardy's job is to then take our jobs. I asked this because California just passed a minimum wage of $15 an hour, and unfortunately, California sometimes leads, many times in the wrong direction. How do we see this $15 an hour minimum wage? Because it could be moving across the country. I know other states are talking about it and other states are considering this. How will this affect small business? This is for all four panelists. How much will this make the changes? I know that we had a good story about the five Dairy Queens and the change that will happen with the managers and now putting them back to salaried employees. Just the change in flexibility of not being able to allow your employees to have maybe a life instead of the things that the small business is going to have to go through with these huge changes from $8, $9, and $10 an hour, to now $15 an hour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. If I may, this has been something that NFIB has really been on the front lines of in the various states fighting because of the Robert Mayfields of the world. The concern is what it does for the entire workforce because it is not just getting that first employee up to $15 an hour, an employee that you may be training that will eventually be making and truly producing that value for the business. It also means what do you do about Joe that prior to the increase was making $17 an hour or $16 an hour? You are not just raising the labor cost, it is not just the lowest person on the ladder; it is going to impact everyone. When you have the small business owners that we represent that are really sometimes netting $100,000 a year if they are lucky, there is not a lot of money to play with there. The pie is just not getting any bigger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KNIGHT. I will use my last couple seconds here. We did a couple roundtables and one of them was with small restaurant owners, and that is the exact issue that they brought up. Look, our cooks do not make $15 an hour. They are making more than that. Now we hire somebody at $15 an hour and somebody is making $18 an hour. Are they going to just say, well, ``that is fine by me; I will just continue to make $18 an hour''? Or are they going to say, ``we would like a bump, too''. It does have that ripple effect throughout the whole business that it is not just the $15 an hour basement, everyone is going to be bumped up. That comes off the bottom line of a small business. It makes it so there are less jobs. Not more jobs, less jobs.    I appreciate the time and I appreciate the panel here today. Thank you, Mr. Chair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentleman's time is expired. The chair would just note that like California, the city of Cincinnati--and I happen to be a resident of the city of Cincinnati--they are also now considering enacting a $15 minimum wage, and I can assure you that they did not consult with the chairman of the House Small Business Committee before considering such action.    The gentleman from Nevada, Mr. Hardy, who is the chairman of the Subcommittee on Investigations, Oversight, and Regulations is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412645</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Thank you, Mr. Chairman, for the opportunity throughout this meeting and bring out some of these issues that are out there. As a former small business owner myself, I might disagree with many on the impact of regulations; I have seen the impact of what regulations do to small businesses. We talk a lot about the small business, but we also have to understand that through the regulation process, small businesses also hurt probably more than anybody else when it impacts big business. I just heard at a hearing this morning about the impact of the steel industry, the regulations on the steel industry and how we cannot compete, or how we have governments backing up things, but the government side does not have anything to do with regulations. It has something to do with what our responsibility is here.    The reason I bring this up, through regulations like ``waters of the U.S.,'' the Clean Water Act, the sick leave rules, all these other little rules that get at it, too, we, as small businesses, feed off many of the big businesses. When it impacts big business, it devastates our market too, and they start to collapse or they start to decline. Things like ``waters of the U.S.'' in Nevada. Really? Clean waters of the U.S. and Clean Water Act in Nevada? You literally could go for hundreds of miles and never find a stream. But because of mining impacts and the costs, it also costs maybe steel products, precious or other metals that help make good quality steel. When that impacts there, it drives costs up and drives the business out of business, so to speak, so we have problems on that end, too. We cannot ever leave out the big business impact. I would like to thank Mr. Knight for signing onto the letter with me for the overtime rule.    Ms. Harned, I would like you to address maybe a little further on what impact this overtime rule has had on small business. You brought it up a little bit but can you go into manufacturing costs of jobs or maybe what other issues might be harmed by this overtime rule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. Right. I think the issue is the jobs. I think that Mr. Mayfield's story really demonstrates that. The other thing that I think is so important to focus on with regard to this rule, we live in a very expensive area, and $50,000 is not what it is in rural Texas. That is one of our biggest complaints with this rule, and we really were asking that the Department look at the fact that you have different markets all over the country. One size definitely does not fit all when it comes to this, and you are, as Mr. Mayfield suggests, punishing people that you are trying to build as managers; making them think as an hourly employee as opposed to doing what is good for the business. I really think, for the small business owners we represent, this rule is very much one of a job loss leader. Lack of sales may definitely come from that, too, because as people lose jobs, they have less money to spend. Our most recent report that was just issued on Tuesday shows now that lack of sales is coming back up as a big factor as to why small businesses are not expanding and doing poorly in this economy still today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. You talk about the impact of the overtime rule, but we have many other impacts--the sick leave rule--that are coming forward. This joint employer rule, which is going to cause a major impact on industries because of the explanation that needs to be understood of where it is really going to stay with the smaller businesses that actually help build up that franchise, so to speak.    A question I can ask of Mr. Palmieri, last year there was 82,035 pages of regulations drafted from January 1 to December 30. Who has to read those pages? How many pages a day is that, by the way? How many employees do we have to have to take care of just to make sure we are not violating regulations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. PALMIERI. Absolutely. For some of our smallest businesses, it is absolutely impossible. They have to rely on outside expertise, they will pay consultants. They will join trade associations. They will join other groups to help figure out what is coming at them, both what to expect in the future and what is hitting them right now. But you point to a critical piece that is so often missed and that no agency does a good job of, which is to say, in what environment am I adding this new regulatory cost? What is the cumulative burden of the regulations from this agency and all others that have been imposed recently on this industry, this sector, or in the past, that they are still following? That they are still investing in capital equipment to comply with? That cumulative burden, even though this administration has asked agencies to look at it, is never analyzed, is never reviewed, and often is what makes a relatively small rule still very costly at the margin and critical for whether a business remains a profitable concern or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. Thank you. The gentleman's time has expired.    The gentleman from Mississippi, Mr. Kelly, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Mr. Chairman, thank you for holding this hearing, and I thank all of you witnesses for being here. I thank you for your testimony today.    It is frustrating to me. I am new here, and so I still have friends back home that do not know anything about the legislative process, and quite frankly do not want to know anything about the legislative process, and I may join them one day. It is frustrating when you have agency after agency after agency that in the name of trying to help people are continuing to hurt not only the small businesses but also the end user, the customer, the consumer whose prices continue to go up. Whether we are talking about the CFPB or EPA or OSHA or NLRB, they continue to pile on regulations, quite frankly, even to the point that recently there are lobbying groups to support their rules on the front end, which is illegal in some cases. Even when you tell them it is illegal, and I have actually had this in the Ag hearing where they say, ``well, I think they misinterpreted the law''. I think the courts are wrong. The courts did not really mean that. They are wrong in the ruling that they have. We are going to ignore that. We have agencies that are out of control. We need good regulation in government. I think everyone in the panel would agree with that. We need reasonable regulation, and we need regulation that prevents cheaters, but we do not need burdens on our backs. Fifty thousand dollars a year is a lot of money in Mississippi, where I live. We cannot afford $15 an hour, especially when it is a graduated scale where you are punishing your hard workers, people like my wife who works, who does not make New York wages, it is difficult. So how do we stop them? Because they put up comment periods. They pay groups to go and comment what they want to say what a great rule it is, either legally or illegally. Groups do that. The number of comments does not equal the number of people it affects, and quite frankly, most small businesses cannot read it, do not have the time to read it, or are not articulate enough to organize to put those right messages on there. How do we stop it in Congress? How do we stop the ridiculous regulations that keep coming? I will just start with you, Ms. Harned, and see, what can we do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HARNED. That is the million-dollar question. I think one thing that can happen that would be helpful is, as we have seen with these big comprehensive bills, whether it is Obamacare or Dodd-Frank or whatever, there is way too much left unsaid in the statutory language, which means that the agencies get a clear path to fill in the blanks, if you will. Then you have years of jurisprudence in the courts that only give them the green light for that, saying we are going to defer to you, we are not going to second guess you. We have created, as an old professor Jonathan Turley said, the fourth branch of government now with these agencies. I really feel like starting in Congress, write clear, small, very direct legislation, and then aggressive oversight is also critical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. That is one of the things that is really frustrating to me, if I vote wrong and I do things that are stupid, my folks will send me home. I am accountable. If I make too many of the wrong votes or do things the wrong way, I am accountable. I go home. The President is accountable to the people. He is elected by the people, and if he makes the wrong decisions, whoever our next president is, he/she, it does not matter. If they make enough of the wrong decisions, the people will send them home. The same with our Senate. The problem is, these regulatory agencies, they do not even go to jail for breaking the law. There is no accountability whatsoever. They are not elected, they do not care what the people think, and they do not care what the voters think because they do not answer to the voters. They do not answer to the President. They do not answer to the Congress. They do not answer to the courts. They think that they are untouchable, and we have to figure out a way. I do not think any rule or regulation, if it was up to me, none of them, unless they were approved by Congress, would ever be acted into regulation. I do not care the cost because I think we owe a duty, and I think we have to get away from regulators running this country. The fourth branch of government, which I would argue right now until we do something, is the most powerful branch of government in spite of that is not the best thing for this nation. I think there are some really good people who work there. I do not think they are all bad people, and I think people have really good motives. But at the end of the day, I think we have to rule on the amount of excessive regulation. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. The gentleman yields back.    The chair was considering going into a second round and asking another question, but I cannot improve on what the gentleman from Mississippi just said. So I am going to end it there.    We want to thank all the witnesses for being here today. Today's hearing highlighted how regulations that are often created without assessing the real world consequences for small businesses can result in unnecessary and excessive regulatory burdens, especially on small businesses. At the core of this problem, I think to some degree, is the agency's failure to comply with the Regulatory Flexibility Act. This Committee will continue to closely monitor agencies' regulatory activities and work on solutions that will ensure full compliance with the law.    I would ask unanimous consent that members have 5 legislative days to submit statements and supporting materials for the record. If there is no further business to come before the Committee, we are adjourned. Thank you very much.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,34 +719,2108 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H10" t="s">
         <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
